--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413887.7088776102</v>
+        <v>409468.83096023</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27492691.18684636</v>
+        <v>27492691.1868464</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7873180.230927301</v>
+        <v>7873180.230927302</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5546091.209298892</v>
+        <v>5546091.209298891</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>196.6583638635141</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>177.2858239608246</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -749,13 +749,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>61.86543420202945</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>21.9983944934181</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>116.0601404231813</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -828,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>91.84156052627245</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>377.5237053979479</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>91.54805860421992</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>71.95762108797241</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
         <v>103.6549143897921</v>
@@ -1028,7 +1028,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>109.6171985334033</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>175.1653677859501</v>
       </c>
       <c r="C7" t="n">
-        <v>158.8628080557227</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>38.72686024223202</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>121.2054428146938</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1305,10 +1305,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>54.4041222626414</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.3849877501012</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>197.2994936006745</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9982996566282</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>88.71003155973078</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>21.45485603648033</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>119.27092732979</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>242.8288019483648</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>127.7895129680402</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4602252892499</v>
+        <v>4.398229279306485</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>136.8344477161509</v>
+        <v>283.3901746780984</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>56.24332779042035</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7275059910497</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.5909258267186</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>306.5413150572215</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>80.69834806689111</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>41.34546638575365</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>258.4072087020443</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>66.45728845128104</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>63.19345405355816</v>
       </c>
       <c r="T23" t="n">
         <v>211.0072727172131</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6304754660823</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>196.799854507747</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>151.8582259726227</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>120.6549167542652</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.19345405355816</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.0072727172131</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6304754660823</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.804448875629</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>135.3349220964423</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>75.01489759319635</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04915168679657</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>147.039480254481</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3395157710762</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>93.80092286439938</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>181.147960223587</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>163.6237746556612</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.501813047529099</v>
       </c>
       <c r="H31" t="n">
-        <v>135.3349220964423</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.6670031686337</v>
       </c>
       <c r="T31" t="n">
         <v>237.5307085459215</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3395157710762</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>127.1054991831712</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>125.2873412865693</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>117.2402594818846</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,7 +3198,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>75.01489759319635</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.04915168679657</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.5307085459215</v>
+        <v>168.1443681978528</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3395157710762</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>134.626492728264</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>278.3742354289944</v>
       </c>
       <c r="G35" t="n">
         <v>398.5346112430763</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.19345405355816</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>229.2951529851269</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.5307085459215</v>
+        <v>147.039480254481</v>
       </c>
       <c r="U37" t="n">
         <v>277.3395157710762</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>181.6126514977717</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>276.8542334509225</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.19345405355816</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.0072727172131</v>
+        <v>125.2873412865692</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6304754660823</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>183.3492207243994</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>74.17120055939596</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>135.3349220964423</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>75.01489759319635</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>11.04915168679657</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>154.6670031686337</v>
+        <v>151.4437758532704</v>
       </c>
       <c r="T40" t="n">
-        <v>237.5307085459215</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3748,7 +3748,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>216.7236864576302</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.19345405355815</v>
       </c>
       <c r="T41" t="n">
-        <v>113.8304455236496</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6304754660823</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73.3760704218648</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>163.804448875629</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.3349220964423</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.6670031686337</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.5307085459215</v>
+        <v>95.80731615252313</v>
       </c>
       <c r="U43" t="n">
         <v>277.3395157710762</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>43.74419418938988</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.19345405355815</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.0072727172131</v>
+        <v>113.8304455236496</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6304754660823</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.804448875629</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.04915168679656</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.7055344994326</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.5307085459215</v>
+        <v>173.620184134929</v>
       </c>
       <c r="U46" t="n">
         <v>277.3395157710762</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>823.6164633177345</v>
+        <v>454.4729305338591</v>
       </c>
       <c r="C2" t="n">
-        <v>800.7561373714387</v>
+        <v>431.6126045875633</v>
       </c>
       <c r="D2" t="n">
-        <v>781.503920596843</v>
+        <v>412.3603878129676</v>
       </c>
       <c r="E2" t="n">
-        <v>759.5673847851047</v>
+        <v>390.4238520012292</v>
       </c>
       <c r="F2" t="n">
-        <v>334.4432029745048</v>
+        <v>369.3400742310336</v>
       </c>
       <c r="G2" t="n">
-        <v>334.1445446043575</v>
+        <v>369.0414158608862</v>
       </c>
       <c r="H2" t="n">
-        <v>36.27616607839228</v>
+        <v>71.17303733492108</v>
       </c>
       <c r="I2" t="n">
         <v>36.27616607839228</v>
@@ -4333,22 +4333,22 @@
         <v>398.8796248952878</v>
       </c>
       <c r="K2" t="n">
-        <v>847.7971801153923</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="L2" t="n">
-        <v>847.7971801153923</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="M2" t="n">
-        <v>1296.714735335497</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="N2" t="n">
-        <v>1296.714735335497</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="O2" t="n">
-        <v>1296.714735335497</v>
+        <v>798.4168585975024</v>
       </c>
       <c r="P2" t="n">
-        <v>1296.714735335497</v>
+        <v>1247.334413817607</v>
       </c>
       <c r="Q2" t="n">
         <v>1696.251969037711</v>
@@ -4366,16 +4366,16 @@
         <v>1451.086100389167</v>
       </c>
       <c r="V2" t="n">
-        <v>1252.441288405819</v>
+        <v>1451.086100389167</v>
       </c>
       <c r="W2" t="n">
-        <v>1252.441288405819</v>
+        <v>1054.694750689514</v>
       </c>
       <c r="X2" t="n">
-        <v>1244.76169361397</v>
+        <v>875.6181608300947</v>
       </c>
       <c r="Y2" t="n">
-        <v>839.4244235688606</v>
+        <v>470.280890784985</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>246.1963686762862</v>
       </c>
       <c r="F3" t="n">
-        <v>183.7060310984787</v>
+        <v>152.5505383591904</v>
       </c>
       <c r="G3" t="n">
-        <v>89.65225931608269</v>
+        <v>58.4967665767944</v>
       </c>
       <c r="H3" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I3" t="n">
-        <v>36.27616607839228</v>
+        <v>43.72280904030412</v>
       </c>
       <c r="J3" t="n">
-        <v>36.27616607839228</v>
+        <v>315.4202983198952</v>
       </c>
       <c r="K3" t="n">
-        <v>485.1937212984968</v>
+        <v>764.3378535399997</v>
       </c>
       <c r="L3" t="n">
-        <v>934.1112765186012</v>
+        <v>1213.255408760104</v>
       </c>
       <c r="M3" t="n">
-        <v>1364.890748699509</v>
+        <v>1282.871438614806</v>
       </c>
       <c r="N3" t="n">
-        <v>1364.890748699509</v>
+        <v>1282.871438614806</v>
       </c>
       <c r="O3" t="n">
-        <v>1364.890748699509</v>
+        <v>1282.871438614806</v>
       </c>
       <c r="P3" t="n">
-        <v>1364.890748699509</v>
+        <v>1731.788993834911</v>
       </c>
       <c r="Q3" t="n">
-        <v>1813.808303919614</v>
+        <v>1731.788993834911</v>
       </c>
       <c r="R3" t="n">
         <v>1813.808303919614</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1064.717190555466</v>
+        <v>681.5699764116977</v>
       </c>
       <c r="C4" t="n">
-        <v>947.4847254815451</v>
+        <v>509.5974132906136</v>
       </c>
       <c r="D4" t="n">
-        <v>784.1679526083158</v>
+        <v>346.2806404173843</v>
       </c>
       <c r="E4" t="n">
-        <v>617.9597467611693</v>
+        <v>180.0724345702379</v>
       </c>
       <c r="F4" t="n">
-        <v>446.0979725357298</v>
+        <v>180.0724345702379</v>
       </c>
       <c r="G4" t="n">
-        <v>279.8410028299619</v>
+        <v>180.0724345702379</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0447343381163</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I4" t="n">
         <v>36.27616607839228</v>
@@ -4494,46 +4494,46 @@
         <v>320.2950955083875</v>
       </c>
       <c r="L4" t="n">
-        <v>674.9844168028083</v>
+        <v>320.2950955083875</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.170211773059</v>
+        <v>711.4808904786382</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.170211773059</v>
+        <v>1088.972401354674</v>
       </c>
       <c r="O4" t="n">
-        <v>1396.208961756951</v>
+        <v>1444.400530034437</v>
       </c>
       <c r="P4" t="n">
-        <v>1686.808173678852</v>
+        <v>1734.999741956338</v>
       </c>
       <c r="Q4" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R4" t="n">
-        <v>1813.808303919614</v>
+        <v>1766.769690606787</v>
       </c>
       <c r="S4" t="n">
-        <v>1813.808303919614</v>
+        <v>1766.769690606787</v>
       </c>
       <c r="T4" t="n">
-        <v>1813.808303919614</v>
+        <v>1523.430342832687</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.623855419918</v>
+        <v>1243.245894332991</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.623855419918</v>
+        <v>1243.245894332991</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.623855419918</v>
+        <v>1150.476641276151</v>
       </c>
       <c r="X4" t="n">
-        <v>1291.059958865724</v>
+        <v>907.9127447219556</v>
       </c>
       <c r="Y4" t="n">
-        <v>1064.717190555466</v>
+        <v>681.5699764116977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>618.2208712606782</v>
+        <v>480.1844309646127</v>
       </c>
       <c r="C5" t="n">
-        <v>595.3605453143824</v>
+        <v>98.84735480506933</v>
       </c>
       <c r="D5" t="n">
-        <v>576.1083285397867</v>
+        <v>79.59513803047368</v>
       </c>
       <c r="E5" t="n">
-        <v>150.1313886876443</v>
+        <v>57.65860221873528</v>
       </c>
       <c r="F5" t="n">
-        <v>129.0476109174486</v>
+        <v>36.57482444853959</v>
       </c>
       <c r="G5" t="n">
-        <v>128.7489525473013</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H5" t="n">
         <v>36.27616607839228</v>
@@ -4567,22 +4567,22 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27616607839228</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="K5" t="n">
-        <v>36.27616607839228</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="L5" t="n">
-        <v>36.27616607839228</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="M5" t="n">
-        <v>36.27616607839228</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="N5" t="n">
-        <v>349.4993033773979</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="O5" t="n">
-        <v>798.4168585975024</v>
+        <v>847.7971801153923</v>
       </c>
       <c r="P5" t="n">
         <v>1247.334413817607</v>
@@ -4600,19 +4600,19 @@
         <v>1709.441009792754</v>
       </c>
       <c r="U5" t="n">
-        <v>1451.086100389167</v>
+        <v>1709.441009792754</v>
       </c>
       <c r="V5" t="n">
-        <v>1451.086100389167</v>
+        <v>1709.441009792754</v>
       </c>
       <c r="W5" t="n">
-        <v>1451.086100389167</v>
+        <v>1313.049660093101</v>
       </c>
       <c r="X5" t="n">
-        <v>1039.366101556914</v>
+        <v>1305.370065301252</v>
       </c>
       <c r="Y5" t="n">
-        <v>1038.069235552208</v>
+        <v>900.0327952561428</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572.2441643705592</v>
+        <v>603.3996571098476</v>
       </c>
       <c r="C6" t="n">
-        <v>454.738260888064</v>
+        <v>485.8937536273523</v>
       </c>
       <c r="D6" t="n">
         <v>382.0537951426373</v>
@@ -4643,28 +4643,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72280904030412</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J6" t="n">
-        <v>315.4202983198952</v>
+        <v>307.9736553579834</v>
       </c>
       <c r="K6" t="n">
-        <v>764.3378535399997</v>
+        <v>756.8912105780878</v>
       </c>
       <c r="L6" t="n">
-        <v>833.9538833947017</v>
+        <v>1205.808765798192</v>
       </c>
       <c r="M6" t="n">
-        <v>1282.871438614806</v>
+        <v>1205.808765798192</v>
       </c>
       <c r="N6" t="n">
         <v>1282.871438614806</v>
       </c>
       <c r="O6" t="n">
-        <v>1731.788993834911</v>
+        <v>1282.871438614806</v>
       </c>
       <c r="P6" t="n">
-        <v>1731.788993834911</v>
+        <v>1282.871438614806</v>
       </c>
       <c r="Q6" t="n">
         <v>1731.788993834911</v>
@@ -4676,22 +4676,22 @@
         <v>1732.484056480869</v>
       </c>
       <c r="T6" t="n">
-        <v>1590.604120778547</v>
+        <v>1621.759613517835</v>
       </c>
       <c r="U6" t="n">
-        <v>1405.835924698183</v>
+        <v>1436.991417437471</v>
       </c>
       <c r="V6" t="n">
-        <v>1200.86278583745</v>
+        <v>1232.018278576738</v>
       </c>
       <c r="W6" t="n">
-        <v>1004.341408670667</v>
+        <v>1035.496901409955</v>
       </c>
       <c r="X6" t="n">
-        <v>840.8640624373296</v>
+        <v>872.0195551766179</v>
       </c>
       <c r="Y6" t="n">
-        <v>701.171173790622</v>
+        <v>732.3266665299103</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>606.5654554202981</v>
+        <v>1119.457288602629</v>
       </c>
       <c r="C7" t="n">
-        <v>446.0979725357298</v>
+        <v>947.4847254815451</v>
       </c>
       <c r="D7" t="n">
-        <v>446.0979725357298</v>
+        <v>784.1679526083158</v>
       </c>
       <c r="E7" t="n">
-        <v>446.0979725357298</v>
+        <v>617.9597467611693</v>
       </c>
       <c r="F7" t="n">
         <v>446.0979725357298</v>
@@ -4731,10 +4731,10 @@
         <v>320.2950955083875</v>
       </c>
       <c r="L7" t="n">
-        <v>627.5316559106643</v>
+        <v>674.9844168028083</v>
       </c>
       <c r="M7" t="n">
-        <v>1018.717450880915</v>
+        <v>1066.170211773059</v>
       </c>
       <c r="N7" t="n">
         <v>1396.208961756951</v>
@@ -4749,28 +4749,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R7" t="n">
-        <v>1766.769690606787</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S7" t="n">
-        <v>1596.634643125922</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T7" t="n">
-        <v>1353.295295351822</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U7" t="n">
-        <v>1353.295295351822</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.583827959851</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W7" t="n">
-        <v>796.7314241323638</v>
+        <v>1538.955900092127</v>
       </c>
       <c r="X7" t="n">
-        <v>796.7314241323638</v>
+        <v>1296.392003537932</v>
       </c>
       <c r="Y7" t="n">
-        <v>796.7314241323638</v>
+        <v>1296.392003537932</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1262.553738614667</v>
+        <v>1789.023882871934</v>
       </c>
       <c r="C8" t="n">
-        <v>835.6530086279674</v>
+        <v>1749.905842223214</v>
       </c>
       <c r="D8" t="n">
-        <v>816.4007918533717</v>
+        <v>1326.613221408215</v>
       </c>
       <c r="E8" t="n">
-        <v>794.4642560416333</v>
+        <v>900.6362815560723</v>
       </c>
       <c r="F8" t="n">
-        <v>773.3804782714376</v>
+        <v>475.5120997454725</v>
       </c>
       <c r="G8" t="n">
-        <v>369.0414158608862</v>
+        <v>71.17303733492108</v>
       </c>
       <c r="H8" t="n">
         <v>71.17303733492108</v>
@@ -4804,28 +4804,28 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J8" t="n">
-        <v>36.27616607839228</v>
+        <v>398.8796248952878</v>
       </c>
       <c r="K8" t="n">
-        <v>36.27616607839228</v>
+        <v>847.7971801153923</v>
       </c>
       <c r="L8" t="n">
-        <v>485.1937212984968</v>
+        <v>847.7971801153923</v>
       </c>
       <c r="M8" t="n">
-        <v>934.1112765186012</v>
+        <v>847.7971801153923</v>
       </c>
       <c r="N8" t="n">
-        <v>1383.028831738706</v>
+        <v>847.7971801153923</v>
       </c>
       <c r="O8" t="n">
-        <v>1813.808303919614</v>
+        <v>847.7971801153923</v>
       </c>
       <c r="P8" t="n">
-        <v>1813.808303919614</v>
+        <v>1296.714735335497</v>
       </c>
       <c r="Q8" t="n">
-        <v>1813.808303919614</v>
+        <v>1745.632290555601</v>
       </c>
       <c r="R8" t="n">
         <v>1813.808303919614</v>
@@ -4843,13 +4843,13 @@
         <v>1813.808303919614</v>
       </c>
       <c r="W8" t="n">
-        <v>1691.378563702752</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.698968910903</v>
+        <v>1806.128709127765</v>
       </c>
       <c r="Y8" t="n">
-        <v>1278.361698865793</v>
+        <v>1804.83184312306</v>
       </c>
     </row>
     <row r="9">
@@ -4889,10 +4889,10 @@
         <v>764.3378535399997</v>
       </c>
       <c r="L9" t="n">
-        <v>764.3378535399997</v>
+        <v>833.9538833947017</v>
       </c>
       <c r="M9" t="n">
-        <v>764.3378535399997</v>
+        <v>833.9538833947017</v>
       </c>
       <c r="N9" t="n">
         <v>833.9538833947017</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>953.2003188968613</v>
+        <v>864.3577092561686</v>
       </c>
       <c r="C10" t="n">
-        <v>781.2277557757773</v>
+        <v>692.3851461350846</v>
       </c>
       <c r="D10" t="n">
-        <v>617.910982902548</v>
+        <v>529.0683732618553</v>
       </c>
       <c r="E10" t="n">
-        <v>451.7027770554015</v>
+        <v>362.8601674147088</v>
       </c>
       <c r="F10" t="n">
-        <v>279.8410028299619</v>
+        <v>190.9983931892693</v>
       </c>
       <c r="G10" t="n">
-        <v>279.8410028299619</v>
+        <v>136.0447343381163</v>
       </c>
       <c r="H10" t="n">
         <v>136.0447343381163</v>
@@ -4962,22 +4962,22 @@
         <v>36.27616607839228</v>
       </c>
       <c r="J10" t="n">
-        <v>36.27616607839228</v>
+        <v>82.07239970089393</v>
       </c>
       <c r="K10" t="n">
-        <v>36.27616607839228</v>
+        <v>308.6000009067311</v>
       </c>
       <c r="L10" t="n">
-        <v>390.9654873728131</v>
+        <v>663.2893222011519</v>
       </c>
       <c r="M10" t="n">
-        <v>782.1512823430639</v>
+        <v>663.2893222011519</v>
       </c>
       <c r="N10" t="n">
-        <v>1159.6427932191</v>
+        <v>1040.780833077188</v>
       </c>
       <c r="O10" t="n">
-        <v>1515.070921898863</v>
+        <v>1396.208961756951</v>
       </c>
       <c r="P10" t="n">
         <v>1686.808173678852</v>
@@ -4986,28 +4986,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R10" t="n">
-        <v>1813.808303919614</v>
+        <v>1766.769690606787</v>
       </c>
       <c r="S10" t="n">
-        <v>1643.673256438749</v>
+        <v>1766.769690606787</v>
       </c>
       <c r="T10" t="n">
-        <v>1643.673256438749</v>
+        <v>1523.430342832687</v>
       </c>
       <c r="U10" t="n">
-        <v>1643.673256438749</v>
+        <v>1523.430342832687</v>
       </c>
       <c r="V10" t="n">
-        <v>1454.395491034606</v>
+        <v>1523.430342832687</v>
       </c>
       <c r="W10" t="n">
-        <v>1179.543087207119</v>
+        <v>1523.430342832687</v>
       </c>
       <c r="X10" t="n">
-        <v>1179.543087207119</v>
+        <v>1280.866446278492</v>
       </c>
       <c r="Y10" t="n">
-        <v>953.2003188968613</v>
+        <v>1054.523677968234</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1164.668727853712</v>
+        <v>1291.745785487435</v>
       </c>
       <c r="C11" t="n">
-        <v>1164.668727853712</v>
+        <v>864.845055500735</v>
       </c>
       <c r="D11" t="n">
-        <v>741.3761070387122</v>
+        <v>864.845055500735</v>
       </c>
       <c r="E11" t="n">
-        <v>741.3761070387122</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F11" t="n">
-        <v>316.2519252281125</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H11" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149085</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250304</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303107</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>1291.745785487435</v>
       </c>
       <c r="X11" t="n">
-        <v>1584.517092145242</v>
+        <v>1291.745785487435</v>
       </c>
       <c r="Y11" t="n">
-        <v>1584.517092145242</v>
+        <v>1291.745785487435</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004328</v>
@@ -5120,52 +5120,52 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>590.33890554562</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>805.6029553320595</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.877653813075</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.47441747923</v>
+        <v>1580.474417479231</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R12" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.276225418369</v>
+        <v>633.0333687827217</v>
       </c>
       <c r="C13" t="n">
-        <v>744.303662297285</v>
+        <v>461.0608056616377</v>
       </c>
       <c r="D13" t="n">
-        <v>580.9868894240557</v>
+        <v>297.7440327884084</v>
       </c>
       <c r="E13" t="n">
-        <v>414.7786835769092</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F13" t="n">
-        <v>414.7786835769092</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>249.3054085448152</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
@@ -5202,19 +5202,19 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K13" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>309.0520751284041</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>757.9696303485086</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N13" t="n">
-        <v>1206.887185568613</v>
+        <v>1304.073400814623</v>
       </c>
       <c r="O13" t="n">
-        <v>1655.804740788718</v>
+        <v>1390.366528636948</v>
       </c>
       <c r="P13" t="n">
         <v>1773.863841351391</v>
@@ -5223,28 +5223,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1623.858494512117</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1623.858494512117</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V13" t="n">
-        <v>1623.858494512117</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W13" t="n">
-        <v>1349.006090684629</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="X13" t="n">
-        <v>1106.442194130435</v>
+        <v>1049.542105805045</v>
       </c>
       <c r="Y13" t="n">
-        <v>1106.442194130435</v>
+        <v>823.1993374947874</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>739.5445460431122</v>
+        <v>583.6525802365973</v>
       </c>
       <c r="C14" t="n">
-        <v>739.5445460431122</v>
+        <v>156.7518502498974</v>
       </c>
       <c r="D14" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E14" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F14" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149083</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250302</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1600.530719422884</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1342.315579046524</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V14" t="n">
-        <v>984.8261641727736</v>
+        <v>1391.763928768503</v>
       </c>
       <c r="W14" t="n">
-        <v>739.5445460431122</v>
+        <v>995.37257906885</v>
       </c>
       <c r="X14" t="n">
-        <v>739.5445460431122</v>
+        <v>583.6525802365973</v>
       </c>
       <c r="Y14" t="n">
-        <v>739.5445460431122</v>
+        <v>583.6525802365973</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C15" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760273</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489645</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004327</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>420.3715208829927</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>629.6462193640077</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N15" t="n">
-        <v>846.8012011963239</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O15" t="n">
-        <v>1237.012362544032</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P15" t="n">
-        <v>1685.929917764136</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q15" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.8832665156085</v>
+        <v>544.3728659164001</v>
       </c>
       <c r="C16" t="n">
-        <v>707.9107033945245</v>
+        <v>372.4003027953161</v>
       </c>
       <c r="D16" t="n">
-        <v>544.5939305212952</v>
+        <v>372.4003027953161</v>
       </c>
       <c r="E16" t="n">
-        <v>378.3857246741487</v>
+        <v>206.1920969481696</v>
       </c>
       <c r="F16" t="n">
-        <v>378.3857246741487</v>
+        <v>206.1920969481696</v>
       </c>
       <c r="G16" t="n">
-        <v>249.3054085448152</v>
+        <v>40.7188219160756</v>
       </c>
       <c r="H16" t="n">
-        <v>112.4768981516335</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I16" t="n">
         <v>36.27616607839228</v>
@@ -5439,22 +5439,22 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>309.0520751284041</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M16" t="n">
-        <v>757.9696303485086</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N16" t="n">
-        <v>1206.887185568613</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O16" t="n">
-        <v>1655.804740788718</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P16" t="n">
-        <v>1726.545848929853</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5469,19 +5469,19 @@
         <v>1813.808303919614</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V16" t="n">
-        <v>1813.808303919614</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W16" t="n">
-        <v>1538.955900092127</v>
+        <v>977.1027311826606</v>
       </c>
       <c r="X16" t="n">
-        <v>1296.392003537932</v>
+        <v>734.5388346284657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1070.049235227674</v>
+        <v>734.5388346284657</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>743.1526552148124</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="C17" t="n">
-        <v>316.2519252281125</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="D17" t="n">
-        <v>316.2519252281125</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E17" t="n">
-        <v>316.2519252281125</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G17" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H17" t="n">
         <v>36.27616607839227</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149078</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303098</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103475</v>
       </c>
       <c r="N17" t="n">
-        <v>1131.245262923652</v>
+        <v>1131.245262923651</v>
       </c>
       <c r="O17" t="n">
         <v>1382.739131455147</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642253</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1535.975759145523</v>
+        <v>1600.530719422883</v>
       </c>
       <c r="U17" t="n">
-        <v>1277.760618769163</v>
+        <v>1600.530719422883</v>
       </c>
       <c r="V17" t="n">
-        <v>1139.544004914465</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="W17" t="n">
-        <v>743.1526552148124</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="X17" t="n">
-        <v>743.1526552148124</v>
+        <v>1314.278017727834</v>
       </c>
       <c r="Y17" t="n">
-        <v>743.1526552148124</v>
+        <v>1314.278017727834</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>36.27616607839227</v>
       </c>
       <c r="I18" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>117.9640444811037</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L18" t="n">
-        <v>420.3715208829927</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M18" t="n">
-        <v>634.6966924775743</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N18" t="n">
-        <v>1083.614247697679</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O18" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P18" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q18" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
         <v>1813.808303919613</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>338.577951503668</v>
+        <v>256.4043811641674</v>
       </c>
       <c r="C19" t="n">
-        <v>338.577951503668</v>
+        <v>256.4043811641674</v>
       </c>
       <c r="D19" t="n">
-        <v>338.577951503668</v>
+        <v>93.08760829093808</v>
       </c>
       <c r="E19" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F19" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G19" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H19" t="n">
         <v>36.27616607839227</v>
@@ -5679,16 +5679,16 @@
         <v>138.6345353799611</v>
       </c>
       <c r="L19" t="n">
-        <v>587.5520906000654</v>
+        <v>356.3700675499419</v>
       </c>
       <c r="M19" t="n">
-        <v>685.6054381776846</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N19" t="n">
-        <v>1134.522993397789</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O19" t="n">
-        <v>1583.440548617893</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P19" t="n">
         <v>1773.863841351391</v>
@@ -5700,25 +5700,25 @@
         <v>1802.007452933977</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.838254963219</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.847420794817</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="U19" t="n">
-        <v>1137.705719277321</v>
+        <v>1281.874917248078</v>
       </c>
       <c r="V19" t="n">
-        <v>855.99425188535</v>
+        <v>1000.163449856107</v>
       </c>
       <c r="W19" t="n">
-        <v>581.1418480578629</v>
+        <v>725.3110460286202</v>
       </c>
       <c r="X19" t="n">
-        <v>338.577951503668</v>
+        <v>482.7471494744253</v>
       </c>
       <c r="Y19" t="n">
-        <v>338.577951503668</v>
+        <v>256.4043811641674</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1600.530719422884</v>
+        <v>1312.446456732234</v>
       </c>
       <c r="C20" t="n">
-        <v>1173.629989436184</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D20" t="n">
-        <v>1173.629989436184</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E20" t="n">
-        <v>863.9922974591925</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F20" t="n">
-        <v>438.8681156485927</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
         <v>36.27616607839228</v>
@@ -5749,16 +5749,16 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149077</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250296</v>
+        <v>366.7061291250297</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303099</v>
+        <v>598.99813723031</v>
       </c>
       <c r="M20" t="n">
         <v>862.6140377103477</v>
@@ -5782,22 +5782,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T20" t="n">
-        <v>1600.530719422884</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U20" t="n">
-        <v>1600.530719422884</v>
+        <v>1732.294821023764</v>
       </c>
       <c r="V20" t="n">
-        <v>1600.530719422884</v>
+        <v>1732.294821023764</v>
       </c>
       <c r="W20" t="n">
-        <v>1600.530719422884</v>
+        <v>1732.294821023764</v>
       </c>
       <c r="X20" t="n">
-        <v>1600.530719422884</v>
+        <v>1732.294821023764</v>
       </c>
       <c r="Y20" t="n">
-        <v>1600.530719422884</v>
+        <v>1732.294821023764</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>462.1409003968606</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>911.058455616965</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>1120.33315409798</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1337.488135930296</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1532.531802917783</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1685.929917764136</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
-        <v>1780.360625738641</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R21" t="n">
         <v>1813.808303919613</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.7919843041564</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="C22" t="n">
-        <v>539.8194211830723</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="D22" t="n">
-        <v>539.8194211830723</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="E22" t="n">
-        <v>373.6112153359259</v>
+        <v>78.03926343773941</v>
       </c>
       <c r="F22" t="n">
-        <v>201.7494411104863</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G22" t="n">
         <v>36.27616607839228</v>
@@ -5913,19 +5913,19 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>216.556252028182</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>309.0520751284041</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>757.9696303485086</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1206.887185568613</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1655.804740788718</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
         <v>1773.863841351391</v>
@@ -5934,28 +5934,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.530066266137</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1405.539232097734</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U22" t="n">
-        <v>1405.539232097734</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V22" t="n">
-        <v>1405.539232097734</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.521849570417</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X22" t="n">
-        <v>901.9579530162221</v>
+        <v>494.548000460063</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.9579530162221</v>
+        <v>268.2052321498051</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>552.546437933146</v>
+        <v>1761.588154393775</v>
       </c>
       <c r="C23" t="n">
-        <v>552.546437933146</v>
+        <v>1334.687424407075</v>
       </c>
       <c r="D23" t="n">
-        <v>485.4178637399328</v>
+        <v>911.3948035920753</v>
       </c>
       <c r="E23" t="n">
         <v>485.4178637399328</v>
@@ -5995,19 +5995,19 @@
         <v>790.2486203856981</v>
       </c>
       <c r="L23" t="n">
-        <v>1088.973349861988</v>
+        <v>1027.449174458208</v>
       </c>
       <c r="M23" t="n">
-        <v>1358.050953506124</v>
+        <v>1296.526778102344</v>
       </c>
       <c r="N23" t="n">
-        <v>1632.232257950755</v>
+        <v>1570.708082546975</v>
       </c>
       <c r="O23" t="n">
-        <v>1888.966908918675</v>
+        <v>1827.442733514896</v>
       </c>
       <c r="P23" t="n">
-        <v>2635.101222794171</v>
+        <v>2143.252315431436</v>
       </c>
       <c r="Q23" t="n">
         <v>2787.610774420886</v>
@@ -6016,25 +6016,25 @@
         <v>3014.684096466649</v>
       </c>
       <c r="S23" t="n">
-        <v>3014.684096466649</v>
+        <v>2950.852324695379</v>
       </c>
       <c r="T23" t="n">
-        <v>2801.545437156333</v>
+        <v>2737.713665385063</v>
       </c>
       <c r="U23" t="n">
-        <v>2543.332835675442</v>
+        <v>2737.713665385063</v>
       </c>
       <c r="V23" t="n">
-        <v>2185.843420801692</v>
+        <v>2380.224250511312</v>
       </c>
       <c r="W23" t="n">
-        <v>1789.452071102038</v>
+        <v>2181.436518685305</v>
       </c>
       <c r="X23" t="n">
-        <v>1377.732072269786</v>
+        <v>2181.436518685305</v>
       </c>
       <c r="Y23" t="n">
-        <v>972.394802224676</v>
+        <v>2181.436518685305</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>60.29368192933299</v>
       </c>
       <c r="I24" t="n">
-        <v>76.40012188346556</v>
+        <v>99.85742772787739</v>
       </c>
       <c r="J24" t="n">
-        <v>144.1269036875932</v>
+        <v>459.6867020015961</v>
       </c>
       <c r="K24" t="n">
-        <v>272.5829201717398</v>
+        <v>588.1427184857428</v>
       </c>
       <c r="L24" t="n">
-        <v>452.835299729429</v>
+        <v>768.395098043432</v>
       </c>
       <c r="M24" t="n">
-        <v>666.326815795761</v>
+        <v>981.886614109764</v>
       </c>
       <c r="N24" t="n">
-        <v>1350.644387319345</v>
+        <v>1203.370020141348</v>
       </c>
       <c r="O24" t="n">
         <v>1549.647716822855</v>
@@ -6126,22 +6126,22 @@
         <v>1111.586602607614</v>
       </c>
       <c r="C25" t="n">
-        <v>939.6140394865296</v>
+        <v>939.61403948653</v>
       </c>
       <c r="D25" t="n">
-        <v>776.2972666133003</v>
+        <v>776.2972666133007</v>
       </c>
       <c r="E25" t="n">
-        <v>610.0890607661538</v>
+        <v>610.0890607661543</v>
       </c>
       <c r="F25" t="n">
-        <v>438.2272865407143</v>
+        <v>438.2272865407148</v>
       </c>
       <c r="G25" t="n">
-        <v>272.7682472724023</v>
+        <v>272.7682472724027</v>
       </c>
       <c r="H25" t="n">
-        <v>136.0663057608444</v>
+        <v>136.0663057608445</v>
       </c>
       <c r="I25" t="n">
         <v>60.29368192933299</v>
@@ -6150,22 +6150,22 @@
         <v>173.0760598112379</v>
       </c>
       <c r="K25" t="n">
-        <v>489.1436879057875</v>
+        <v>490.4638403440655</v>
       </c>
       <c r="L25" t="n">
-        <v>960.1027566738861</v>
+        <v>961.4229091121641</v>
       </c>
       <c r="M25" t="n">
-        <v>1473.878698133597</v>
+        <v>1475.198850571875</v>
       </c>
       <c r="N25" t="n">
-        <v>1971.045435818023</v>
+        <v>1972.365588256301</v>
       </c>
       <c r="O25" t="n">
-        <v>2437.013006452094</v>
+        <v>2438.333158890372</v>
       </c>
       <c r="P25" t="n">
-        <v>2822.197807244595</v>
+        <v>2823.517959682873</v>
       </c>
       <c r="Q25" t="n">
         <v>3014.684096466649</v>
@@ -6177,22 +6177,22 @@
         <v>2847.294041057124</v>
       </c>
       <c r="T25" t="n">
-        <v>2607.364032424879</v>
+        <v>2607.36403242488</v>
       </c>
       <c r="U25" t="n">
-        <v>2327.22310740359</v>
+        <v>2327.223107403591</v>
       </c>
       <c r="V25" t="n">
-        <v>2045.511640011619</v>
+        <v>2045.51164001162</v>
       </c>
       <c r="W25" t="n">
-        <v>1770.659236184132</v>
+        <v>1770.659236184133</v>
       </c>
       <c r="X25" t="n">
-        <v>1528.095339629937</v>
+        <v>1528.095339629938</v>
       </c>
       <c r="Y25" t="n">
-        <v>1301.752571319679</v>
+        <v>1301.75257131968</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>158.9404843170984</v>
+        <v>616.4359183291979</v>
       </c>
       <c r="C26" t="n">
-        <v>158.9404843170984</v>
+        <v>616.4359183291979</v>
       </c>
       <c r="D26" t="n">
-        <v>158.9404843170984</v>
+        <v>463.0437708821042</v>
       </c>
       <c r="E26" t="n">
-        <v>158.9404843170984</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="F26" t="n">
-        <v>158.9404843170984</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="G26" t="n">
-        <v>158.9404843170984</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="H26" t="n">
         <v>37.0668310299618</v>
@@ -6226,52 +6226,52 @@
         <v>70.07876124370867</v>
       </c>
       <c r="J26" t="n">
-        <v>188.9261355228583</v>
+        <v>188.9261355228587</v>
       </c>
       <c r="K26" t="n">
-        <v>375.2925507787007</v>
+        <v>375.2925507787011</v>
       </c>
       <c r="L26" t="n">
-        <v>612.493104851211</v>
+        <v>612.4931048512113</v>
       </c>
       <c r="M26" t="n">
-        <v>881.5707084953465</v>
+        <v>881.5707084953469</v>
       </c>
       <c r="N26" t="n">
-        <v>1155.752012939978</v>
+        <v>1155.752012939979</v>
       </c>
       <c r="O26" t="n">
-        <v>1412.486663907898</v>
+        <v>1412.486663907899</v>
       </c>
       <c r="P26" t="n">
         <v>1625.997336103363</v>
       </c>
       <c r="Q26" t="n">
-        <v>1778.506887730077</v>
+        <v>1778.506887730078</v>
       </c>
       <c r="R26" t="n">
         <v>1853.34155149809</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.509779726819</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T26" t="n">
-        <v>1576.371120416503</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="U26" t="n">
-        <v>1318.158518935612</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="V26" t="n">
-        <v>960.6691040618612</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="W26" t="n">
-        <v>564.277754362208</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="X26" t="n">
-        <v>564.277754362208</v>
+        <v>1441.621552665837</v>
       </c>
       <c r="Y26" t="n">
-        <v>158.9404843170984</v>
+        <v>1036.284282620728</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I27" t="n">
-        <v>53.17327098409437</v>
+        <v>76.63057682850622</v>
       </c>
       <c r="J27" t="n">
-        <v>120.900052788222</v>
+        <v>144.3573586326339</v>
       </c>
       <c r="K27" t="n">
-        <v>249.3560692723687</v>
+        <v>272.8133751167805</v>
       </c>
       <c r="L27" t="n">
-        <v>429.6084488300579</v>
+        <v>453.0657546744698</v>
       </c>
       <c r="M27" t="n">
-        <v>643.0999648963898</v>
+        <v>666.5572707408018</v>
       </c>
       <c r="N27" t="n">
-        <v>1025.291595529672</v>
+        <v>888.040676772386</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.294925033182</v>
+        <v>1087.044006275896</v>
       </c>
       <c r="P27" t="n">
-        <v>1682.996959028959</v>
+        <v>1243.620099381372</v>
       </c>
       <c r="Q27" t="n">
-        <v>1779.552061308521</v>
+        <v>1674.096561023615</v>
       </c>
       <c r="R27" t="n">
         <v>1814.033031331932</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.359751708243</v>
+        <v>209.0393941510458</v>
       </c>
       <c r="C28" t="n">
-        <v>916.3871885871587</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="D28" t="n">
-        <v>753.0704157139294</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="E28" t="n">
-        <v>586.8622098667829</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="F28" t="n">
-        <v>415.0004356413433</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="G28" t="n">
-        <v>249.5413963730311</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="H28" t="n">
-        <v>112.8394548614733</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="I28" t="n">
         <v>37.0668310299618</v>
@@ -6390,16 +6390,16 @@
         <v>142.0326636824514</v>
       </c>
       <c r="L28" t="n">
-        <v>236.602838859385</v>
+        <v>600.7346976782287</v>
       </c>
       <c r="M28" t="n">
-        <v>695.3048728551623</v>
+        <v>1059.436731674006</v>
       </c>
       <c r="N28" t="n">
-        <v>1154.00690685094</v>
+        <v>1518.138765669783</v>
       </c>
       <c r="O28" t="n">
-        <v>1612.708940846717</v>
+        <v>1739.800163434741</v>
       </c>
       <c r="P28" t="n">
         <v>1812.228759653935</v>
@@ -6408,28 +6408,28 @@
         <v>1853.34155149809</v>
       </c>
       <c r="R28" t="n">
-        <v>1842.180792218498</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="S28" t="n">
-        <v>1842.180792218498</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T28" t="n">
-        <v>1842.180792218498</v>
+        <v>1704.816823968311</v>
       </c>
       <c r="U28" t="n">
-        <v>1842.180792218498</v>
+        <v>1424.675898947022</v>
       </c>
       <c r="V28" t="n">
-        <v>1842.180792218498</v>
+        <v>1142.964431555051</v>
       </c>
       <c r="W28" t="n">
-        <v>1747.432385284761</v>
+        <v>868.1120277275643</v>
       </c>
       <c r="X28" t="n">
-        <v>1504.868488730566</v>
+        <v>625.5481311733694</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.525720420308</v>
+        <v>399.2053628631114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>886.336391697104</v>
+        <v>220.0445686295446</v>
       </c>
       <c r="C29" t="n">
-        <v>886.336391697104</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="D29" t="n">
-        <v>463.0437708821042</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="E29" t="n">
         <v>37.0668310299618</v>
@@ -6463,7 +6463,7 @@
         <v>70.07876124370867</v>
       </c>
       <c r="J29" t="n">
-        <v>188.9261355228583</v>
+        <v>188.9261355228584</v>
       </c>
       <c r="K29" t="n">
         <v>375.2925507787007</v>
@@ -6472,7 +6472,7 @@
         <v>612.493104851211</v>
       </c>
       <c r="M29" t="n">
-        <v>881.5707084953465</v>
+        <v>881.5707084953466</v>
       </c>
       <c r="N29" t="n">
         <v>1155.752012939978</v>
@@ -6484,7 +6484,7 @@
         <v>1625.997336103363</v>
       </c>
       <c r="Q29" t="n">
-        <v>1778.506887730077</v>
+        <v>1778.506887730078</v>
       </c>
       <c r="R29" t="n">
         <v>1853.34155149809</v>
@@ -6493,22 +6493,22 @@
         <v>1853.34155149809</v>
       </c>
       <c r="T29" t="n">
-        <v>1688.065011441867</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="U29" t="n">
-        <v>1688.065011441867</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="V29" t="n">
-        <v>1688.065011441867</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="W29" t="n">
-        <v>1291.673661742214</v>
+        <v>1456.950201798437</v>
       </c>
       <c r="X29" t="n">
-        <v>1291.673661742214</v>
+        <v>1045.230202966184</v>
       </c>
       <c r="Y29" t="n">
-        <v>886.336391697104</v>
+        <v>639.8929329210747</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I30" t="n">
-        <v>53.17327098409437</v>
+        <v>76.63057682850622</v>
       </c>
       <c r="J30" t="n">
-        <v>120.900052788222</v>
+        <v>436.4598511022249</v>
       </c>
       <c r="K30" t="n">
-        <v>249.3560692723687</v>
+        <v>564.9158675863716</v>
       </c>
       <c r="L30" t="n">
-        <v>429.6084488300579</v>
+        <v>745.1682471440608</v>
       </c>
       <c r="M30" t="n">
-        <v>743.7871986721732</v>
+        <v>958.6597632103928</v>
       </c>
       <c r="N30" t="n">
-        <v>965.2706047037574</v>
+        <v>1180.143169241977</v>
       </c>
       <c r="O30" t="n">
-        <v>1164.273934207268</v>
+        <v>1379.146498745487</v>
       </c>
       <c r="P30" t="n">
-        <v>1320.850027312743</v>
+        <v>1535.722591850963</v>
       </c>
       <c r="Q30" t="n">
-        <v>1779.552061308521</v>
+        <v>1674.096561023615</v>
       </c>
       <c r="R30" t="n">
         <v>1814.033031331932</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.9495415097501</v>
+        <v>377.9135539409712</v>
       </c>
       <c r="C31" t="n">
-        <v>339.9769783886661</v>
+        <v>205.9409908198872</v>
       </c>
       <c r="D31" t="n">
-        <v>339.9769783886661</v>
+        <v>42.62421794665786</v>
       </c>
       <c r="E31" t="n">
-        <v>173.7687725415197</v>
+        <v>42.62421794665786</v>
       </c>
       <c r="F31" t="n">
-        <v>173.7687725415197</v>
+        <v>42.62421794665786</v>
       </c>
       <c r="G31" t="n">
-        <v>173.7687725415197</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="H31" t="n">
         <v>37.0668310299618</v>
@@ -6621,10 +6621,10 @@
         <v>37.0668310299618</v>
       </c>
       <c r="J31" t="n">
-        <v>149.8492089118667</v>
+        <v>71.92749226364583</v>
       </c>
       <c r="K31" t="n">
-        <v>219.9543803306723</v>
+        <v>142.0326636824514</v>
       </c>
       <c r="L31" t="n">
         <v>363.6940614474091</v>
@@ -6648,25 +6648,25 @@
         <v>1853.34155149809</v>
       </c>
       <c r="S31" t="n">
-        <v>1853.34155149809</v>
+        <v>1697.112255368157</v>
       </c>
       <c r="T31" t="n">
-        <v>1613.411542865846</v>
+        <v>1457.182246735913</v>
       </c>
       <c r="U31" t="n">
-        <v>1613.411542865846</v>
+        <v>1177.041321714624</v>
       </c>
       <c r="V31" t="n">
-        <v>1331.700075473875</v>
+        <v>895.3298543226531</v>
       </c>
       <c r="W31" t="n">
-        <v>1056.847671646388</v>
+        <v>620.4774504951661</v>
       </c>
       <c r="X31" t="n">
-        <v>928.4582785320738</v>
+        <v>377.9135539409712</v>
       </c>
       <c r="Y31" t="n">
-        <v>702.1155102218158</v>
+        <v>377.9135539409712</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1441.621552665837</v>
+        <v>1315.068682679404</v>
       </c>
       <c r="C32" t="n">
-        <v>1014.720822679138</v>
+        <v>888.167952692704</v>
       </c>
       <c r="D32" t="n">
         <v>888.167952692704</v>
@@ -6697,22 +6697,22 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I32" t="n">
-        <v>70.07876124370875</v>
+        <v>70.07876124370867</v>
       </c>
       <c r="J32" t="n">
-        <v>188.9261355228584</v>
+        <v>188.9261355228587</v>
       </c>
       <c r="K32" t="n">
-        <v>375.2925507787008</v>
+        <v>375.2925507787011</v>
       </c>
       <c r="L32" t="n">
-        <v>612.493104851211</v>
+        <v>612.4931048512113</v>
       </c>
       <c r="M32" t="n">
-        <v>881.5707084953467</v>
+        <v>881.5707084953469</v>
       </c>
       <c r="N32" t="n">
-        <v>1155.752012939978</v>
+        <v>1155.752012939979</v>
       </c>
       <c r="O32" t="n">
         <v>1412.486663907899</v>
@@ -6742,10 +6742,10 @@
         <v>1853.34155149809</v>
       </c>
       <c r="X32" t="n">
-        <v>1441.621552665837</v>
+        <v>1734.917046970934</v>
       </c>
       <c r="Y32" t="n">
-        <v>1441.621552665837</v>
+        <v>1734.917046970934</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I33" t="n">
-        <v>53.17327098409437</v>
+        <v>76.63057682850622</v>
       </c>
       <c r="J33" t="n">
-        <v>120.900052788222</v>
+        <v>436.4598511022249</v>
       </c>
       <c r="K33" t="n">
-        <v>249.3560692723687</v>
+        <v>564.9158675863716</v>
       </c>
       <c r="L33" t="n">
-        <v>429.6084488300579</v>
+        <v>745.1682471440608</v>
       </c>
       <c r="M33" t="n">
-        <v>643.0999648963898</v>
+        <v>958.6597632103928</v>
       </c>
       <c r="N33" t="n">
-        <v>864.5833709279739</v>
+        <v>1180.143169241977</v>
       </c>
       <c r="O33" t="n">
-        <v>1063.586700431484</v>
+        <v>1379.146498745487</v>
       </c>
       <c r="P33" t="n">
-        <v>1320.850027312743</v>
+        <v>1535.722591850963</v>
       </c>
       <c r="Q33" t="n">
-        <v>1779.552061308521</v>
+        <v>1674.096561023615</v>
       </c>
       <c r="R33" t="n">
         <v>1814.033031331932</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.364433581849</v>
+        <v>710.4261470968611</v>
       </c>
       <c r="C34" t="n">
-        <v>442.364433581849</v>
+        <v>538.4535839757771</v>
       </c>
       <c r="D34" t="n">
-        <v>279.0476607086197</v>
+        <v>375.1368111025478</v>
       </c>
       <c r="E34" t="n">
-        <v>112.8394548614733</v>
+        <v>208.9286052554014</v>
       </c>
       <c r="F34" t="n">
-        <v>112.8394548614733</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="G34" t="n">
-        <v>112.8394548614733</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="H34" t="n">
-        <v>112.8394548614733</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="I34" t="n">
         <v>37.0668310299618</v>
       </c>
       <c r="J34" t="n">
-        <v>149.8492089118667</v>
+        <v>71.92749226364583</v>
       </c>
       <c r="K34" t="n">
-        <v>219.9543803306723</v>
+        <v>142.0326636824514</v>
       </c>
       <c r="L34" t="n">
-        <v>314.5245555076059</v>
+        <v>236.6028388593851</v>
       </c>
       <c r="M34" t="n">
-        <v>773.2265895033831</v>
+        <v>695.3048728551623</v>
       </c>
       <c r="N34" t="n">
-        <v>1231.92862349916</v>
+        <v>1154.00690685094</v>
       </c>
       <c r="O34" t="n">
-        <v>1690.630657494938</v>
+        <v>1427.043958861433</v>
       </c>
       <c r="P34" t="n">
-        <v>1763.059253714132</v>
+        <v>1812.228759653935</v>
       </c>
       <c r="Q34" t="n">
         <v>1853.34155149809</v>
       </c>
       <c r="R34" t="n">
-        <v>1842.180792218498</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="S34" t="n">
-        <v>1842.180792218498</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T34" t="n">
-        <v>1602.250783586254</v>
+        <v>1683.498755338643</v>
       </c>
       <c r="U34" t="n">
-        <v>1322.109858564965</v>
+        <v>1683.498755338643</v>
       </c>
       <c r="V34" t="n">
-        <v>1186.123502273789</v>
+        <v>1401.787287946672</v>
       </c>
       <c r="W34" t="n">
-        <v>911.2710984463019</v>
+        <v>1126.934884119185</v>
       </c>
       <c r="X34" t="n">
-        <v>668.707201892107</v>
+        <v>1126.934884119185</v>
       </c>
       <c r="Y34" t="n">
-        <v>442.364433581849</v>
+        <v>900.5921158089268</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1146.178515253024</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="C35" t="n">
-        <v>719.2777852663243</v>
+        <v>1426.44082151139</v>
       </c>
       <c r="D35" t="n">
-        <v>719.2777852663243</v>
+        <v>1426.44082151139</v>
       </c>
       <c r="E35" t="n">
-        <v>719.2777852663243</v>
+        <v>1000.463881659248</v>
       </c>
       <c r="F35" t="n">
         <v>719.2777852663243</v>
@@ -6934,25 +6934,25 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I35" t="n">
-        <v>70.07876124370841</v>
+        <v>70.07876124370867</v>
       </c>
       <c r="J35" t="n">
-        <v>188.9261355228581</v>
+        <v>188.9261355228587</v>
       </c>
       <c r="K35" t="n">
-        <v>375.2925507787005</v>
+        <v>375.2925507787011</v>
       </c>
       <c r="L35" t="n">
-        <v>612.4931048512108</v>
+        <v>612.4931048512113</v>
       </c>
       <c r="M35" t="n">
-        <v>881.5707084953465</v>
+        <v>881.5707084953469</v>
       </c>
       <c r="N35" t="n">
-        <v>1155.752012939978</v>
+        <v>1155.752012939979</v>
       </c>
       <c r="O35" t="n">
-        <v>1412.486663907898</v>
+        <v>1412.486663907899</v>
       </c>
       <c r="P35" t="n">
         <v>1625.997336103363</v>
@@ -6964,25 +6964,25 @@
         <v>1853.34155149809</v>
       </c>
       <c r="S35" t="n">
-        <v>1789.509779726819</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T35" t="n">
-        <v>1789.509779726819</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="U35" t="n">
-        <v>1557.898514085277</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="V35" t="n">
-        <v>1557.898514085277</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="W35" t="n">
-        <v>1557.898514085277</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="X35" t="n">
-        <v>1146.178515253024</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.178515253024</v>
+        <v>1853.34155149809</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I36" t="n">
-        <v>53.17327098409437</v>
+        <v>76.63057682850622</v>
       </c>
       <c r="J36" t="n">
-        <v>413.0025452578131</v>
+        <v>436.4598511022249</v>
       </c>
       <c r="K36" t="n">
-        <v>541.4585617419598</v>
+        <v>606.734734479462</v>
       </c>
       <c r="L36" t="n">
-        <v>721.710941299649</v>
+        <v>786.9871140371512</v>
       </c>
       <c r="M36" t="n">
-        <v>1105.934130388389</v>
+        <v>1000.478630103483</v>
       </c>
       <c r="N36" t="n">
-        <v>1327.417536419973</v>
+        <v>1221.962036135067</v>
       </c>
       <c r="O36" t="n">
-        <v>1526.420865923484</v>
+        <v>1420.965365638578</v>
       </c>
       <c r="P36" t="n">
-        <v>1682.996959028959</v>
+        <v>1577.541458744053</v>
       </c>
       <c r="Q36" t="n">
-        <v>1779.552061308521</v>
+        <v>1674.096561023615</v>
       </c>
       <c r="R36" t="n">
         <v>1814.033031331932</v>
@@ -7098,16 +7098,16 @@
         <v>149.8492089118667</v>
       </c>
       <c r="K37" t="n">
-        <v>219.9543803306723</v>
+        <v>467.2369894446944</v>
       </c>
       <c r="L37" t="n">
-        <v>363.6940614474091</v>
+        <v>925.9390234404716</v>
       </c>
       <c r="M37" t="n">
-        <v>822.3960954431864</v>
+        <v>1384.641057436249</v>
       </c>
       <c r="N37" t="n">
-        <v>1281.098129438964</v>
+        <v>1651.534917103874</v>
       </c>
       <c r="O37" t="n">
         <v>1739.800163434741</v>
@@ -7125,13 +7125,13 @@
         <v>1853.34155149809</v>
       </c>
       <c r="T37" t="n">
-        <v>1613.411542865846</v>
+        <v>1704.816823968311</v>
       </c>
       <c r="U37" t="n">
-        <v>1333.270617844557</v>
+        <v>1424.675898947022</v>
       </c>
       <c r="V37" t="n">
-        <v>1051.559150452586</v>
+        <v>1142.964431555051</v>
       </c>
       <c r="W37" t="n">
         <v>868.1120277275643</v>
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>316.7175718894795</v>
+        <v>1315.068682679404</v>
       </c>
       <c r="C38" t="n">
-        <v>316.7175718894795</v>
+        <v>888.167952692704</v>
       </c>
       <c r="D38" t="n">
-        <v>316.7175718894795</v>
+        <v>888.167952692704</v>
       </c>
       <c r="E38" t="n">
-        <v>316.7175718894795</v>
+        <v>462.1910128405616</v>
       </c>
       <c r="F38" t="n">
-        <v>316.7175718894795</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="G38" t="n">
-        <v>316.7175718894795</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="H38" t="n">
         <v>37.0668310299618</v>
       </c>
       <c r="I38" t="n">
-        <v>70.07876124370841</v>
+        <v>70.07876124370864</v>
       </c>
       <c r="J38" t="n">
-        <v>188.9261355228581</v>
+        <v>188.9261355228584</v>
       </c>
       <c r="K38" t="n">
-        <v>375.2925507787005</v>
+        <v>375.2925507787007</v>
       </c>
       <c r="L38" t="n">
-        <v>612.4931048512108</v>
+        <v>612.493104851211</v>
       </c>
       <c r="M38" t="n">
         <v>881.5707084953465</v>
@@ -7201,25 +7201,25 @@
         <v>1853.34155149809</v>
       </c>
       <c r="S38" t="n">
-        <v>1789.509779726819</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T38" t="n">
-        <v>1576.371120416503</v>
+        <v>1726.788681511657</v>
       </c>
       <c r="U38" t="n">
-        <v>1318.158518935612</v>
+        <v>1726.788681511657</v>
       </c>
       <c r="V38" t="n">
-        <v>1132.957285880663</v>
+        <v>1726.788681511657</v>
       </c>
       <c r="W38" t="n">
-        <v>736.5659361810095</v>
+        <v>1726.788681511657</v>
       </c>
       <c r="X38" t="n">
-        <v>736.5659361810095</v>
+        <v>1315.068682679404</v>
       </c>
       <c r="Y38" t="n">
-        <v>736.5659361810095</v>
+        <v>1315.068682679404</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I39" t="n">
-        <v>53.17327098409437</v>
+        <v>76.63057682850622</v>
       </c>
       <c r="J39" t="n">
-        <v>281.6082773899197</v>
+        <v>436.4598511022249</v>
       </c>
       <c r="K39" t="n">
-        <v>410.0642938740664</v>
+        <v>564.9158675863716</v>
       </c>
       <c r="L39" t="n">
-        <v>590.3166734317556</v>
+        <v>745.1682471440608</v>
       </c>
       <c r="M39" t="n">
-        <v>803.8081894980876</v>
+        <v>958.6597632103928</v>
       </c>
       <c r="N39" t="n">
-        <v>1025.291595529672</v>
+        <v>1180.143169241977</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.294925033182</v>
+        <v>1379.146498745487</v>
       </c>
       <c r="P39" t="n">
-        <v>1682.996959028959</v>
+        <v>1535.722591850963</v>
       </c>
       <c r="Q39" t="n">
-        <v>1779.552061308521</v>
+        <v>1674.096561023615</v>
       </c>
       <c r="R39" t="n">
         <v>1814.033031331932</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>420.5509513724097</v>
+        <v>759.5839395667012</v>
       </c>
       <c r="C40" t="n">
-        <v>420.5509513724097</v>
+        <v>587.6113764456172</v>
       </c>
       <c r="D40" t="n">
-        <v>420.5509513724097</v>
+        <v>587.6113764456172</v>
       </c>
       <c r="E40" t="n">
-        <v>420.5509513724097</v>
+        <v>421.4031705984708</v>
       </c>
       <c r="F40" t="n">
-        <v>248.6891771469701</v>
+        <v>249.5413963730311</v>
       </c>
       <c r="G40" t="n">
-        <v>173.7687725415197</v>
+        <v>249.5413963730311</v>
       </c>
       <c r="H40" t="n">
-        <v>37.0668310299618</v>
+        <v>112.8394548614733</v>
       </c>
       <c r="I40" t="n">
         <v>37.0668310299618</v>
       </c>
       <c r="J40" t="n">
-        <v>149.8492089118667</v>
+        <v>71.92749226364583</v>
       </c>
       <c r="K40" t="n">
-        <v>219.9543803306723</v>
+        <v>389.3152727964735</v>
       </c>
       <c r="L40" t="n">
-        <v>678.6564143264495</v>
+        <v>570.7821370683985</v>
       </c>
       <c r="M40" t="n">
-        <v>1137.358448322227</v>
+        <v>671.0225980652874</v>
       </c>
       <c r="N40" t="n">
-        <v>1236.492263164773</v>
+        <v>1129.724632061065</v>
       </c>
       <c r="O40" t="n">
-        <v>1324.75750949564</v>
+        <v>1588.426666056842</v>
       </c>
       <c r="P40" t="n">
         <v>1660.855262276036</v>
@@ -7356,28 +7356,28 @@
         <v>1853.34155149809</v>
       </c>
       <c r="R40" t="n">
-        <v>1842.180792218498</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="S40" t="n">
-        <v>1685.951496088565</v>
+        <v>1700.368040535191</v>
       </c>
       <c r="T40" t="n">
-        <v>1446.021487456321</v>
+        <v>1700.368040535191</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.021487456321</v>
+        <v>1700.368040535191</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.31002006435</v>
+        <v>1418.65657314322</v>
       </c>
       <c r="W40" t="n">
-        <v>889.4576162368626</v>
+        <v>1418.65657314322</v>
       </c>
       <c r="X40" t="n">
-        <v>646.8937196826677</v>
+        <v>1176.092676589025</v>
       </c>
       <c r="Y40" t="n">
-        <v>420.5509513724097</v>
+        <v>949.749908278767</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1738.361303494404</v>
+        <v>1531.297178245928</v>
       </c>
       <c r="C41" t="n">
-        <v>1311.460573507704</v>
+        <v>1104.396448259228</v>
       </c>
       <c r="D41" t="n">
-        <v>888.167952692704</v>
+        <v>681.1038274442285</v>
       </c>
       <c r="E41" t="n">
         <v>462.1910128405616</v>
@@ -7408,7 +7408,7 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I41" t="n">
-        <v>70.07876124370864</v>
+        <v>70.07876124370867</v>
       </c>
       <c r="J41" t="n">
         <v>188.9261355228584</v>
@@ -7420,7 +7420,7 @@
         <v>612.493104851211</v>
       </c>
       <c r="M41" t="n">
-        <v>881.5707084953465</v>
+        <v>881.5707084953466</v>
       </c>
       <c r="N41" t="n">
         <v>1155.752012939978</v>
@@ -7438,25 +7438,25 @@
         <v>1853.34155149809</v>
       </c>
       <c r="S41" t="n">
-        <v>1853.34155149809</v>
+        <v>1789.509779726819</v>
       </c>
       <c r="T41" t="n">
-        <v>1738.361303494404</v>
+        <v>1789.509779726819</v>
       </c>
       <c r="U41" t="n">
-        <v>1738.361303494404</v>
+        <v>1531.297178245928</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.361303494404</v>
+        <v>1531.297178245928</v>
       </c>
       <c r="W41" t="n">
-        <v>1738.361303494404</v>
+        <v>1531.297178245928</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.361303494404</v>
+        <v>1531.297178245928</v>
       </c>
       <c r="Y41" t="n">
-        <v>1738.361303494404</v>
+        <v>1531.297178245928</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I42" t="n">
-        <v>53.17327098409437</v>
+        <v>76.63057682850622</v>
       </c>
       <c r="J42" t="n">
-        <v>413.0025452578131</v>
+        <v>436.4598511022249</v>
       </c>
       <c r="K42" t="n">
-        <v>712.1902347643679</v>
+        <v>564.9158675863716</v>
       </c>
       <c r="L42" t="n">
-        <v>892.4426143220571</v>
+        <v>745.1682471440608</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.934130388389</v>
+        <v>958.6597632103928</v>
       </c>
       <c r="N42" t="n">
-        <v>1327.417536419973</v>
+        <v>1180.143169241977</v>
       </c>
       <c r="O42" t="n">
-        <v>1526.420865923484</v>
+        <v>1379.146498745487</v>
       </c>
       <c r="P42" t="n">
-        <v>1682.996959028959</v>
+        <v>1535.722591850963</v>
       </c>
       <c r="Q42" t="n">
-        <v>1779.552061308521</v>
+        <v>1674.096561023615</v>
       </c>
       <c r="R42" t="n">
         <v>1814.033031331932</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>620.4774504951661</v>
+        <v>677.2977918824179</v>
       </c>
       <c r="C43" t="n">
-        <v>448.504887374082</v>
+        <v>677.2977918824179</v>
       </c>
       <c r="D43" t="n">
-        <v>374.3876445237136</v>
+        <v>677.2977918824179</v>
       </c>
       <c r="E43" t="n">
-        <v>374.3876445237136</v>
+        <v>511.0895860352714</v>
       </c>
       <c r="F43" t="n">
-        <v>202.525870298274</v>
+        <v>339.2278118098318</v>
       </c>
       <c r="G43" t="n">
-        <v>37.0668310299618</v>
+        <v>173.7687725415197</v>
       </c>
       <c r="H43" t="n">
         <v>37.0668310299618</v>
@@ -7575,19 +7575,19 @@
         <v>142.0326636824514</v>
       </c>
       <c r="L43" t="n">
-        <v>363.6940614474091</v>
+        <v>236.6028388593851</v>
       </c>
       <c r="M43" t="n">
-        <v>822.3960954431864</v>
+        <v>695.3048728551623</v>
       </c>
       <c r="N43" t="n">
-        <v>1281.098129438964</v>
+        <v>1154.00690685094</v>
       </c>
       <c r="O43" t="n">
-        <v>1739.800163434741</v>
+        <v>1588.426666056842</v>
       </c>
       <c r="P43" t="n">
-        <v>1812.228759653935</v>
+        <v>1660.855262276036</v>
       </c>
       <c r="Q43" t="n">
         <v>1853.34155149809</v>
@@ -7596,25 +7596,25 @@
         <v>1853.34155149809</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.112255368157</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T43" t="n">
-        <v>1457.182246735913</v>
+        <v>1756.56648467736</v>
       </c>
       <c r="U43" t="n">
-        <v>1177.041321714624</v>
+        <v>1476.425559656071</v>
       </c>
       <c r="V43" t="n">
-        <v>895.3298543226531</v>
+        <v>1194.7140922641</v>
       </c>
       <c r="W43" t="n">
-        <v>620.4774504951661</v>
+        <v>919.8616884366128</v>
       </c>
       <c r="X43" t="n">
-        <v>620.4774504951661</v>
+        <v>677.2977918824179</v>
       </c>
       <c r="Y43" t="n">
-        <v>620.4774504951661</v>
+        <v>677.2977918824179</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.25288576671926</v>
+        <v>1738.361303494404</v>
       </c>
       <c r="C44" t="n">
-        <v>81.25288576671926</v>
+        <v>1311.460573507704</v>
       </c>
       <c r="D44" t="n">
-        <v>81.25288576671926</v>
+        <v>888.167952692704</v>
       </c>
       <c r="E44" t="n">
-        <v>81.25288576671926</v>
+        <v>462.1910128405616</v>
       </c>
       <c r="F44" t="n">
-        <v>81.25288576671926</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="G44" t="n">
         <v>37.0668310299618</v>
@@ -7645,25 +7645,25 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I44" t="n">
-        <v>70.07876124370867</v>
+        <v>70.07876124370902</v>
       </c>
       <c r="J44" t="n">
-        <v>188.9261355228584</v>
+        <v>188.9261355228587</v>
       </c>
       <c r="K44" t="n">
-        <v>375.2925507787007</v>
+        <v>375.2925507787011</v>
       </c>
       <c r="L44" t="n">
-        <v>612.493104851211</v>
+        <v>612.4931048512113</v>
       </c>
       <c r="M44" t="n">
-        <v>881.5707084953466</v>
+        <v>881.5707084953469</v>
       </c>
       <c r="N44" t="n">
-        <v>1155.752012939978</v>
+        <v>1155.752012939979</v>
       </c>
       <c r="O44" t="n">
-        <v>1412.486663907898</v>
+        <v>1412.486663907899</v>
       </c>
       <c r="P44" t="n">
         <v>1625.997336103363</v>
@@ -7675,25 +7675,25 @@
         <v>1853.34155149809</v>
       </c>
       <c r="S44" t="n">
-        <v>1789.509779726819</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T44" t="n">
-        <v>1576.371120416503</v>
+        <v>1738.361303494404</v>
       </c>
       <c r="U44" t="n">
-        <v>1318.158518935612</v>
+        <v>1738.361303494404</v>
       </c>
       <c r="V44" t="n">
-        <v>1318.158518935612</v>
+        <v>1738.361303494404</v>
       </c>
       <c r="W44" t="n">
-        <v>1318.158518935612</v>
+        <v>1738.361303494404</v>
       </c>
       <c r="X44" t="n">
-        <v>906.438520103359</v>
+        <v>1738.361303494404</v>
       </c>
       <c r="Y44" t="n">
-        <v>501.1012500582493</v>
+        <v>1738.361303494404</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>37.0668310299618</v>
       </c>
       <c r="I45" t="n">
-        <v>53.17327098409437</v>
+        <v>76.63057682850622</v>
       </c>
       <c r="J45" t="n">
-        <v>120.900052788222</v>
+        <v>436.4598511022249</v>
       </c>
       <c r="K45" t="n">
-        <v>249.3560692723687</v>
+        <v>606.734734479462</v>
       </c>
       <c r="L45" t="n">
-        <v>429.6084488300579</v>
+        <v>786.9871140371512</v>
       </c>
       <c r="M45" t="n">
-        <v>888.3104828258352</v>
+        <v>1000.478630103483</v>
       </c>
       <c r="N45" t="n">
-        <v>1109.793888857419</v>
+        <v>1221.962036135067</v>
       </c>
       <c r="O45" t="n">
-        <v>1308.79721836093</v>
+        <v>1420.965365638578</v>
       </c>
       <c r="P45" t="n">
-        <v>1465.373311466405</v>
+        <v>1577.541458744053</v>
       </c>
       <c r="Q45" t="n">
-        <v>1779.552061308521</v>
+        <v>1674.096561023615</v>
       </c>
       <c r="R45" t="n">
         <v>1814.033031331932</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>368.7340761454204</v>
+        <v>372.3561670242751</v>
       </c>
       <c r="C46" t="n">
-        <v>368.7340761454204</v>
+        <v>200.3836039031911</v>
       </c>
       <c r="D46" t="n">
-        <v>368.7340761454204</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="E46" t="n">
-        <v>202.525870298274</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="F46" t="n">
-        <v>202.525870298274</v>
+        <v>37.0668310299618</v>
       </c>
       <c r="G46" t="n">
         <v>37.0668310299618</v>
@@ -7806,13 +7806,13 @@
         <v>37.0668310299618</v>
       </c>
       <c r="J46" t="n">
-        <v>149.8492089118667</v>
+        <v>71.92749226364583</v>
       </c>
       <c r="K46" t="n">
-        <v>219.9543803306723</v>
+        <v>389.3152727964735</v>
       </c>
       <c r="L46" t="n">
-        <v>628.4627201600008</v>
+        <v>483.8854479734072</v>
       </c>
       <c r="M46" t="n">
         <v>728.7031811568897</v>
@@ -7830,28 +7830,28 @@
         <v>1853.34155149809</v>
       </c>
       <c r="R46" t="n">
-        <v>1842.180792218498</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="S46" t="n">
-        <v>1687.932777572606</v>
+        <v>1853.34155149809</v>
       </c>
       <c r="T46" t="n">
-        <v>1448.002768940362</v>
+        <v>1677.967628129475</v>
       </c>
       <c r="U46" t="n">
-        <v>1167.861843919073</v>
+        <v>1397.826703108186</v>
       </c>
       <c r="V46" t="n">
-        <v>886.1503765271023</v>
+        <v>1116.115235716215</v>
       </c>
       <c r="W46" t="n">
-        <v>611.2979726996153</v>
+        <v>841.262831888728</v>
       </c>
       <c r="X46" t="n">
-        <v>368.7340761454204</v>
+        <v>598.6989353345331</v>
       </c>
       <c r="Y46" t="n">
-        <v>368.7340761454204</v>
+        <v>372.3561670242751</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>489.2166767747128</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>490.8833388793353</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>440.9639226915943</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>491.0274377901348</v>
       </c>
       <c r="Q2" t="n">
-        <v>439.6976379401685</v>
+        <v>489.5767505845016</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>475.8513098132368</v>
@@ -8066,7 +8066,7 @@
         <v>475.967162694133</v>
       </c>
       <c r="M3" t="n">
-        <v>458.2275604930434</v>
+        <v>93.41600258778453</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>475.2229171847322</v>
       </c>
       <c r="Q3" t="n">
-        <v>476.199114268882</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,22 +8142,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>355.8716622296284</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>104.2241708084982</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8227,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>353.6666302071789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>490.8430353359276</v>
       </c>
       <c r="P5" t="n">
-        <v>491.0274377901348</v>
+        <v>441.1483251458016</v>
       </c>
       <c r="Q5" t="n">
         <v>489.5767505845016</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
@@ -8300,22 +8300,22 @@
         <v>475.8513098132368</v>
       </c>
       <c r="L6" t="n">
-        <v>92.83430878968611</v>
+        <v>475.967162694133</v>
       </c>
       <c r="M6" t="n">
-        <v>476.5488564922315</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>99.18411186668706</v>
       </c>
       <c r="O6" t="n">
-        <v>476.6239657021257</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>476.199114268882</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8379,13 +8379,13 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>332.2587198980011</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>354.1213757068043</v>
       </c>
       <c r="O7" t="n">
         <v>22.49918749842445</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>489.2166767747128</v>
       </c>
       <c r="L8" t="n">
-        <v>491.7641184125264</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>490.8833388793353</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>490.7316988143495</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>472.5217393367395</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>491.0274377901348</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>489.5767505845016</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>103.8973098584457</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,13 +8537,13 @@
         <v>475.8513098132368</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>92.83430878968611</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>91.66225028899822</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>66.89557782481262</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8628,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>195.8527721529251</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8768,13 +8768,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>326.4130602513782</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.01535248059656</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>70.37539003541903</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>355.4735849779359</v>
+        <v>198.2474048310582</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>47.79595194094703</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>197.1388831921428</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>298.504485226012</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M16" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779359</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.79595194094711</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>5.101487993501621</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>234.1036094826144</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.438270942038</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>360.0219516362447</v>
+        <v>126.5047566361199</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N19" t="n">
         <v>355.4735849779358</v>
@@ -9339,7 +9339,7 @@
         <v>366.287300401798</v>
       </c>
       <c r="P19" t="n">
-        <v>120.89109554784</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>220.6143740853705</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>275.0289943327833</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779359</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>47.79595194094703</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>62.14563172098948</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>538.0036784646782</v>
+        <v>103.3322320414909</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,10 +9728,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>467.5092580727269</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>148.7619870484814</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>248.446925935095</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>151.5690352925467</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>162.3315400017149</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>305.177718071012</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>337.2943023865467</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>367.8099584028724</v>
       </c>
       <c r="M28" t="n">
-        <v>362.0823969685742</v>
+        <v>362.0823969685741</v>
       </c>
       <c r="N28" t="n">
         <v>363.2002213669001</v>
       </c>
       <c r="O28" t="n">
-        <v>374.1785733988991</v>
+        <v>134.743587307162</v>
       </c>
       <c r="P28" t="n">
-        <v>128.3749723111353</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>101.7042765411953</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>365.8049815315312</v>
+        <v>42.24127968999024</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>49.66616761596282</v>
+        <v>128.3749723111353</v>
       </c>
       <c r="M31" t="n">
-        <v>362.0823969685742</v>
+        <v>362.0823969685741</v>
       </c>
       <c r="N31" t="n">
         <v>363.2002213669001</v>
       </c>
       <c r="O31" t="n">
-        <v>374.1785733988992</v>
+        <v>374.1785733988991</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>101.7042765411956</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>365.8049815315312</v>
+        <v>42.24127968999024</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10515,19 +10515,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>362.0823969685742</v>
+        <v>362.0823969685741</v>
       </c>
       <c r="N34" t="n">
         <v>363.2002213669001</v>
       </c>
       <c r="O34" t="n">
-        <v>374.1785733988991</v>
+        <v>186.6381875551783</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.66616761596293</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>42.24127968999025</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>172.4562353761698</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>49.66616761596282</v>
+        <v>367.8099584028724</v>
       </c>
       <c r="M37" t="n">
-        <v>362.0823969685742</v>
+        <v>362.0823969685741</v>
       </c>
       <c r="N37" t="n">
-        <v>363.2002213669001</v>
+        <v>169.4545907324027</v>
       </c>
       <c r="O37" t="n">
-        <v>374.1785733988992</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>162.3315400017149</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>305.177718071012</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>42.24127968999024</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>367.8099584028724</v>
+        <v>87.77443342928419</v>
       </c>
       <c r="M40" t="n">
-        <v>362.0823969685742</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>363.2002213669001</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>374.1785733988991</v>
       </c>
       <c r="P40" t="n">
-        <v>266.3324813749513</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>172.4562353761699</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>42.24127968999024</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>128.3749723111353</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>362.0823969685741</v>
@@ -11232,13 +11232,13 @@
         <v>363.2002213669001</v>
       </c>
       <c r="O43" t="n">
-        <v>374.1785733988991</v>
+        <v>349.6510231060962</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>42.24127968999025</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.6873918479245</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.8218662248019</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1092572246413</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>146.0376486733269</v>
       </c>
       <c r="N46" t="n">
         <v>363.2002213669001</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>195.127942601982</v>
       </c>
       <c r="X11" t="n">
-        <v>180.604499187302</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>75.8360922289442</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>216.1360697902383</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>299.7887672770597</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23512,7 +23512,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>149.5986342542918</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>36.02902931373289</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0619960099434</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>217.0800730088621</v>
+        <v>70.52434604691456</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23895,19 +23895,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>108.3027959982546</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
         <v>75.43872475250879</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>12.18510681011176</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>115.1758553963995</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24022,10 +24022,10 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>174.9346409057049</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>128.7976900974315</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
         <v>135.4602252892499</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>13.69667108716777</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>352.6024061555686</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.19345405355816</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6304754660823</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>195.6275816949096</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>267.201468634227</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24460,7 +24460,7 @@
         <v>398.5346112430763</v>
       </c>
       <c r="H26" t="n">
-        <v>156.1993166966573</v>
+        <v>276.8542334509225</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.19345405355815</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.0072727172131</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6304754660823</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.804448875629</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.3349220964423</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>75.01489759319635</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>11.04915168679656</v>
       </c>
       <c r="S28" t="n">
         <v>154.6670031686337</v>
       </c>
       <c r="T28" t="n">
-        <v>237.5307085459215</v>
+        <v>90.49122829144045</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3395157710762</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>178.3029569248127</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>241.4837624632459</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.19345405355816</v>
+        <v>63.19345405355815</v>
       </c>
       <c r="T29" t="n">
-        <v>47.38349806155193</v>
+        <v>211.0072727172131</v>
       </c>
       <c r="U29" t="n">
         <v>255.6304754660823</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.804448875629</v>
+        <v>158.3026358280999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.3349220964423</v>
       </c>
       <c r="I31" t="n">
         <v>75.01489759319635</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04915168679657</v>
+        <v>11.04915168679656</v>
       </c>
       <c r="S31" t="n">
-        <v>154.6670031686337</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3395157710762</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>113.0327584054818</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>293.7723533202804</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.19345405355816</v>
+        <v>63.19345405355815</v>
       </c>
       <c r="T32" t="n">
         <v>211.0072727172131</v>
@@ -24982,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>290.3625393620456</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.804448875629</v>
@@ -25095,7 +25095,7 @@
         <v>135.3349220964423</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>75.01489759319635</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>11.04915168679656</v>
       </c>
       <c r="S34" t="n">
         <v>154.6670031686337</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>69.38634034806867</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3395157710762</v>
       </c>
       <c r="V34" t="n">
-        <v>144.2678599897874</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,10 +25162,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>142.4987045634993</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.19345405355815</v>
       </c>
       <c r="T35" t="n">
         <v>211.0072727172131</v>
       </c>
       <c r="U35" t="n">
-        <v>26.33532248095537</v>
+        <v>255.6304754660823</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.04915168679657</v>
+        <v>11.04915168679656</v>
       </c>
       <c r="S37" t="n">
         <v>154.6670031686337</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>90.49122829144045</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>90.49122829144039</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.5346112430763</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>276.8542334509225</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>63.19345405355815</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>85.71993143064395</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6304754660823</v>
       </c>
       <c r="V38" t="n">
-        <v>170.5653000006136</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>89.63324831623309</v>
+        <v>163.804448875629</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>75.01489759319635</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>11.04915168679656</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.223227315363346</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.5307085459215</v>
       </c>
       <c r="U40" t="n">
         <v>277.3395157710762</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>204.9934839959908</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.19345405355815</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>97.1768271935635</v>
+        <v>211.0072727172131</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6304754660823</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25788,13 +25788,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>88.3075347226322</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.3349220964423</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>75.01489759319635</v>
@@ -25836,10 +25836,10 @@
         <v>11.04915168679656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.6670031686337</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>141.7233923933983</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>354.7904170536864</v>
+        <v>398.5346112430763</v>
       </c>
       <c r="H44" t="n">
         <v>276.8542334509225</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>63.19345405355815</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>97.1768271935635</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6304754660823</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.804448875629</v>
       </c>
       <c r="H46" t="n">
         <v>135.3349220964423</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>11.04915168679656</v>
       </c>
       <c r="S46" t="n">
-        <v>1.961468669201082</v>
+        <v>154.6670031686337</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>63.91052441099251</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>368633.186065361</v>
+        <v>368633.1860653608</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373178.3080382521</v>
+        <v>373178.308038252</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373178.3080382521</v>
+        <v>373178.308038252</v>
       </c>
     </row>
     <row r="15">
@@ -26322,34 +26322,34 @@
         <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
-        <v>184523.1391850202</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="F2" t="n">
-        <v>184523.1391850203</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="G2" t="n">
-        <v>184523.1391850205</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="H2" t="n">
-        <v>184523.1391850205</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="I2" t="n">
         <v>257024.5161641366</v>
       </c>
       <c r="J2" t="n">
-        <v>186986.6973362293</v>
+        <v>186986.6973362294</v>
       </c>
       <c r="K2" t="n">
-        <v>186986.6973362293</v>
+        <v>186986.6973362294</v>
       </c>
       <c r="L2" t="n">
         <v>186986.6973362293</v>
       </c>
       <c r="M2" t="n">
-        <v>186986.6973362292</v>
+        <v>186986.6973362293</v>
       </c>
       <c r="N2" t="n">
-        <v>186986.6973362291</v>
+        <v>186986.6973362293</v>
       </c>
       <c r="O2" t="n">
         <v>186986.6973362294</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>85717.58327357601</v>
+        <v>85717.58327357596</v>
       </c>
       <c r="J3" t="n">
         <v>42678.43775874744</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254197.2963838093</v>
+        <v>254197.2963838092</v>
       </c>
       <c r="C4" t="n">
         <v>254197.2963838092</v>
@@ -26426,10 +26426,10 @@
         <v>254197.2963838092</v>
       </c>
       <c r="E4" t="n">
+        <v>15357.047615473</v>
+      </c>
+      <c r="F4" t="n">
         <v>15357.04761547299</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15357.047615473</v>
       </c>
       <c r="G4" t="n">
         <v>15357.04761547298</v>
@@ -26438,22 +26438,22 @@
         <v>15357.04761547298</v>
       </c>
       <c r="I4" t="n">
-        <v>51094.97965131645</v>
+        <v>51094.97965131646</v>
       </c>
       <c r="J4" t="n">
-        <v>15186.3948528026</v>
+        <v>15186.39485280259</v>
       </c>
       <c r="K4" t="n">
         <v>15186.39485280259</v>
       </c>
       <c r="L4" t="n">
-        <v>15186.3948528026</v>
+        <v>15186.39485280259</v>
       </c>
       <c r="M4" t="n">
         <v>15186.39485280259</v>
       </c>
       <c r="N4" t="n">
-        <v>15186.3948528026</v>
+        <v>15186.39485280259</v>
       </c>
       <c r="O4" t="n">
         <v>15186.39485280259</v>
@@ -26527,43 +26527,43 @@
         <v>34070.8182033106</v>
       </c>
       <c r="D6" t="n">
-        <v>34070.81820331054</v>
+        <v>34070.81820331048</v>
       </c>
       <c r="E6" t="n">
-        <v>-213446.0451440583</v>
+        <v>-214133.3054008151</v>
       </c>
       <c r="F6" t="n">
-        <v>132216.7907565058</v>
+        <v>131529.5304997489</v>
       </c>
       <c r="G6" t="n">
-        <v>132216.7907565059</v>
+        <v>131529.5304997488</v>
       </c>
       <c r="H6" t="n">
-        <v>132216.7907565059</v>
+        <v>131529.5304997488</v>
       </c>
       <c r="I6" t="n">
-        <v>64838.96391139409</v>
+        <v>64453.79272538335</v>
       </c>
       <c r="J6" t="n">
-        <v>91401.28208035123</v>
+        <v>90724.28664922433</v>
       </c>
       <c r="K6" t="n">
-        <v>134079.7198390987</v>
+        <v>133402.7244079719</v>
       </c>
       <c r="L6" t="n">
-        <v>134079.7198390987</v>
+        <v>133402.7244079718</v>
       </c>
       <c r="M6" t="n">
-        <v>134079.7198390986</v>
+        <v>133402.7244079717</v>
       </c>
       <c r="N6" t="n">
-        <v>134079.7198390985</v>
+        <v>133402.7244079718</v>
       </c>
       <c r="O6" t="n">
-        <v>134079.7198390987</v>
+        <v>133402.7244079718</v>
       </c>
       <c r="P6" t="n">
-        <v>134079.7198390987</v>
+        <v>133402.7244079718</v>
       </c>
     </row>
   </sheetData>
@@ -26752,28 +26752,28 @@
         <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
         <v>438.0638101631669</v>
       </c>
       <c r="J3" t="n">
-        <v>438.0638101631669</v>
+        <v>438.063810163167</v>
       </c>
       <c r="K3" t="n">
-        <v>438.0638101631669</v>
+        <v>438.063810163167</v>
       </c>
       <c r="L3" t="n">
-        <v>438.0638101631669</v>
+        <v>438.063810163167</v>
       </c>
       <c r="M3" t="n">
-        <v>438.0638101631669</v>
+        <v>438.063810163167</v>
       </c>
       <c r="N3" t="n">
-        <v>438.0638101631669</v>
+        <v>438.063810163167</v>
       </c>
       <c r="O3" t="n">
         <v>438.063810163167</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.815434316220887</v>
+        <v>7.815434316220831</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>157.2561568614989</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>230.3169748831056</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>30.84393781189542</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>30.84393781189541</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>54.19269706669188</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>180.2623192629397</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>45.10801728888498</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>203.3416361364856</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27672,19 +27672,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>30.8439378118954</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>30.84393781189515</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.09894123899485</v>
       </c>
       <c r="C7" t="n">
-        <v>11.39002943415048</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>383.9048624446008</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>271.2219933879628</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>110.1902777460688</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>91.50936496795018</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
         <v>17.71369318248255</v>
@@ -32487,7 +32487,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
         <v>248.7246402301936</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32560,7 +32560,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
         <v>240.6914947108307</v>
@@ -32575,7 +32575,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
@@ -32584,7 +32584,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
@@ -32633,7 +32633,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32648,10 +32648,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
         <v>34.88538470391794</v>
@@ -32660,10 +32660,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32958,25 +32958,25 @@
         <v>309.2268221359324</v>
       </c>
       <c r="N26" t="n">
-        <v>314.230435404781</v>
+        <v>314.2304354047811</v>
       </c>
       <c r="O26" t="n">
-        <v>296.7188896266504</v>
+        <v>296.7188896266505</v>
       </c>
       <c r="P26" t="n">
         <v>253.2427074622155</v>
       </c>
       <c r="Q26" t="n">
-        <v>190.1747267527947</v>
+        <v>190.1747267527948</v>
       </c>
       <c r="R26" t="n">
         <v>110.6232193574353</v>
       </c>
       <c r="S26" t="n">
-        <v>40.13016713203284</v>
+        <v>40.13016713203285</v>
       </c>
       <c r="T26" t="n">
-        <v>7.709042528600051</v>
+        <v>7.709042528600052</v>
       </c>
       <c r="U26" t="n">
         <v>0.1408848434695611</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9422504595962459</v>
+        <v>0.942250459596246</v>
       </c>
       <c r="H27" t="n">
-        <v>9.100155754521639</v>
+        <v>9.100155754521641</v>
       </c>
       <c r="I27" t="n">
-        <v>32.44151801680057</v>
+        <v>32.44151801680058</v>
       </c>
       <c r="J27" t="n">
         <v>89.0220050445734</v>
@@ -33034,7 +33034,7 @@
         <v>204.5881973785621</v>
       </c>
       <c r="M27" t="n">
-        <v>238.7447765389259</v>
+        <v>238.744776538926</v>
       </c>
       <c r="N27" t="n">
         <v>245.063640366657</v>
@@ -33095,28 +33095,28 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7899511330811205</v>
+        <v>0.7899511330811206</v>
       </c>
       <c r="H28" t="n">
-        <v>7.023383710484877</v>
+        <v>7.023383710484878</v>
       </c>
       <c r="I28" t="n">
         <v>23.75598498393044</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84954510883522</v>
+        <v>55.84954510883523</v>
       </c>
       <c r="K28" t="n">
-        <v>91.77795891615199</v>
+        <v>91.777958916152</v>
       </c>
       <c r="L28" t="n">
-        <v>117.4441893673513</v>
+        <v>117.4441893673514</v>
       </c>
       <c r="M28" t="n">
         <v>123.8284307974342</v>
       </c>
       <c r="N28" t="n">
-        <v>120.8840674832228</v>
+        <v>120.8840674832229</v>
       </c>
       <c r="O28" t="n">
         <v>111.6560019740479</v>
@@ -33128,16 +33128,16 @@
         <v>66.14763533463821</v>
       </c>
       <c r="R28" t="n">
-        <v>35.51907549290201</v>
+        <v>35.51907549290202</v>
       </c>
       <c r="S28" t="n">
         <v>13.7666938374228</v>
       </c>
       <c r="T28" t="n">
-        <v>3.375245750437514</v>
+        <v>3.375245750437515</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04308824362260662</v>
+        <v>0.04308824362260663</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,25 +33195,25 @@
         <v>309.2268221359324</v>
       </c>
       <c r="N29" t="n">
-        <v>314.230435404781</v>
+        <v>314.2304354047811</v>
       </c>
       <c r="O29" t="n">
-        <v>296.7188896266504</v>
+        <v>296.7188896266505</v>
       </c>
       <c r="P29" t="n">
         <v>253.2427074622155</v>
       </c>
       <c r="Q29" t="n">
-        <v>190.1747267527947</v>
+        <v>190.1747267527948</v>
       </c>
       <c r="R29" t="n">
         <v>110.6232193574353</v>
       </c>
       <c r="S29" t="n">
-        <v>40.13016713203284</v>
+        <v>40.13016713203285</v>
       </c>
       <c r="T29" t="n">
-        <v>7.709042528600051</v>
+        <v>7.709042528600052</v>
       </c>
       <c r="U29" t="n">
         <v>0.1408848434695611</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9422504595962459</v>
+        <v>0.942250459596246</v>
       </c>
       <c r="H30" t="n">
-        <v>9.100155754521639</v>
+        <v>9.100155754521641</v>
       </c>
       <c r="I30" t="n">
-        <v>32.44151801680057</v>
+        <v>32.44151801680058</v>
       </c>
       <c r="J30" t="n">
         <v>89.0220050445734</v>
@@ -33271,7 +33271,7 @@
         <v>204.5881973785621</v>
       </c>
       <c r="M30" t="n">
-        <v>238.7447765389259</v>
+        <v>238.744776538926</v>
       </c>
       <c r="N30" t="n">
         <v>245.063640366657</v>
@@ -33332,28 +33332,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7899511330811205</v>
+        <v>0.7899511330811206</v>
       </c>
       <c r="H31" t="n">
-        <v>7.023383710484877</v>
+        <v>7.023383710484878</v>
       </c>
       <c r="I31" t="n">
         <v>23.75598498393044</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84954510883522</v>
+        <v>55.84954510883523</v>
       </c>
       <c r="K31" t="n">
-        <v>91.77795891615199</v>
+        <v>91.777958916152</v>
       </c>
       <c r="L31" t="n">
-        <v>117.4441893673513</v>
+        <v>117.4441893673514</v>
       </c>
       <c r="M31" t="n">
         <v>123.8284307974342</v>
       </c>
       <c r="N31" t="n">
-        <v>120.8840674832228</v>
+        <v>120.8840674832229</v>
       </c>
       <c r="O31" t="n">
         <v>111.6560019740479</v>
@@ -33365,16 +33365,16 @@
         <v>66.14763533463821</v>
       </c>
       <c r="R31" t="n">
-        <v>35.51907549290201</v>
+        <v>35.51907549290202</v>
       </c>
       <c r="S31" t="n">
         <v>13.7666938374228</v>
       </c>
       <c r="T31" t="n">
-        <v>3.375245750437514</v>
+        <v>3.375245750437515</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04308824362260662</v>
+        <v>0.04308824362260663</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,25 +33432,25 @@
         <v>309.2268221359324</v>
       </c>
       <c r="N32" t="n">
-        <v>314.230435404781</v>
+        <v>314.2304354047811</v>
       </c>
       <c r="O32" t="n">
-        <v>296.7188896266504</v>
+        <v>296.7188896266505</v>
       </c>
       <c r="P32" t="n">
         <v>253.2427074622155</v>
       </c>
       <c r="Q32" t="n">
-        <v>190.1747267527947</v>
+        <v>190.1747267527948</v>
       </c>
       <c r="R32" t="n">
         <v>110.6232193574353</v>
       </c>
       <c r="S32" t="n">
-        <v>40.13016713203284</v>
+        <v>40.13016713203285</v>
       </c>
       <c r="T32" t="n">
-        <v>7.709042528600051</v>
+        <v>7.709042528600052</v>
       </c>
       <c r="U32" t="n">
         <v>0.1408848434695611</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9422504595962459</v>
+        <v>0.942250459596246</v>
       </c>
       <c r="H33" t="n">
-        <v>9.100155754521639</v>
+        <v>9.100155754521641</v>
       </c>
       <c r="I33" t="n">
-        <v>32.44151801680057</v>
+        <v>32.44151801680058</v>
       </c>
       <c r="J33" t="n">
         <v>89.0220050445734</v>
@@ -33508,7 +33508,7 @@
         <v>204.5881973785621</v>
       </c>
       <c r="M33" t="n">
-        <v>238.7447765389259</v>
+        <v>238.744776538926</v>
       </c>
       <c r="N33" t="n">
         <v>245.063640366657</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7899511330811205</v>
+        <v>0.7899511330811206</v>
       </c>
       <c r="H34" t="n">
-        <v>7.023383710484877</v>
+        <v>7.023383710484878</v>
       </c>
       <c r="I34" t="n">
         <v>23.75598498393044</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84954510883522</v>
+        <v>55.84954510883523</v>
       </c>
       <c r="K34" t="n">
-        <v>91.77795891615199</v>
+        <v>91.777958916152</v>
       </c>
       <c r="L34" t="n">
-        <v>117.4441893673513</v>
+        <v>117.4441893673514</v>
       </c>
       <c r="M34" t="n">
         <v>123.8284307974342</v>
       </c>
       <c r="N34" t="n">
-        <v>120.8840674832228</v>
+        <v>120.8840674832229</v>
       </c>
       <c r="O34" t="n">
         <v>111.6560019740479</v>
@@ -33602,16 +33602,16 @@
         <v>66.14763533463821</v>
       </c>
       <c r="R34" t="n">
-        <v>35.51907549290201</v>
+        <v>35.51907549290202</v>
       </c>
       <c r="S34" t="n">
         <v>13.7666938374228</v>
       </c>
       <c r="T34" t="n">
-        <v>3.375245750437514</v>
+        <v>3.375245750437515</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04308824362260662</v>
+        <v>0.04308824362260663</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,25 +33669,25 @@
         <v>309.2268221359324</v>
       </c>
       <c r="N35" t="n">
-        <v>314.230435404781</v>
+        <v>314.2304354047811</v>
       </c>
       <c r="O35" t="n">
-        <v>296.7188896266504</v>
+        <v>296.7188896266505</v>
       </c>
       <c r="P35" t="n">
         <v>253.2427074622155</v>
       </c>
       <c r="Q35" t="n">
-        <v>190.1747267527947</v>
+        <v>190.1747267527948</v>
       </c>
       <c r="R35" t="n">
         <v>110.6232193574353</v>
       </c>
       <c r="S35" t="n">
-        <v>40.13016713203284</v>
+        <v>40.13016713203285</v>
       </c>
       <c r="T35" t="n">
-        <v>7.709042528600051</v>
+        <v>7.709042528600052</v>
       </c>
       <c r="U35" t="n">
         <v>0.1408848434695611</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9422504595962459</v>
+        <v>0.942250459596246</v>
       </c>
       <c r="H36" t="n">
-        <v>9.100155754521639</v>
+        <v>9.100155754521641</v>
       </c>
       <c r="I36" t="n">
-        <v>32.44151801680057</v>
+        <v>32.44151801680058</v>
       </c>
       <c r="J36" t="n">
         <v>89.0220050445734</v>
@@ -33745,7 +33745,7 @@
         <v>204.5881973785621</v>
       </c>
       <c r="M36" t="n">
-        <v>238.7447765389259</v>
+        <v>238.744776538926</v>
       </c>
       <c r="N36" t="n">
         <v>245.063640366657</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7899511330811205</v>
+        <v>0.7899511330811206</v>
       </c>
       <c r="H37" t="n">
-        <v>7.023383710484877</v>
+        <v>7.023383710484878</v>
       </c>
       <c r="I37" t="n">
         <v>23.75598498393044</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84954510883522</v>
+        <v>55.84954510883523</v>
       </c>
       <c r="K37" t="n">
-        <v>91.77795891615199</v>
+        <v>91.777958916152</v>
       </c>
       <c r="L37" t="n">
-        <v>117.4441893673513</v>
+        <v>117.4441893673514</v>
       </c>
       <c r="M37" t="n">
         <v>123.8284307974342</v>
       </c>
       <c r="N37" t="n">
-        <v>120.8840674832228</v>
+        <v>120.8840674832229</v>
       </c>
       <c r="O37" t="n">
         <v>111.6560019740479</v>
@@ -33839,16 +33839,16 @@
         <v>66.14763533463821</v>
       </c>
       <c r="R37" t="n">
-        <v>35.51907549290201</v>
+        <v>35.51907549290202</v>
       </c>
       <c r="S37" t="n">
         <v>13.7666938374228</v>
       </c>
       <c r="T37" t="n">
-        <v>3.375245750437514</v>
+        <v>3.375245750437515</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04308824362260662</v>
+        <v>0.04308824362260663</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,25 +33906,25 @@
         <v>309.2268221359324</v>
       </c>
       <c r="N38" t="n">
-        <v>314.230435404781</v>
+        <v>314.2304354047811</v>
       </c>
       <c r="O38" t="n">
-        <v>296.7188896266504</v>
+        <v>296.7188896266505</v>
       </c>
       <c r="P38" t="n">
         <v>253.2427074622155</v>
       </c>
       <c r="Q38" t="n">
-        <v>190.1747267527947</v>
+        <v>190.1747267527948</v>
       </c>
       <c r="R38" t="n">
         <v>110.6232193574353</v>
       </c>
       <c r="S38" t="n">
-        <v>40.13016713203284</v>
+        <v>40.13016713203285</v>
       </c>
       <c r="T38" t="n">
-        <v>7.709042528600051</v>
+        <v>7.709042528600052</v>
       </c>
       <c r="U38" t="n">
         <v>0.1408848434695611</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9422504595962459</v>
+        <v>0.942250459596246</v>
       </c>
       <c r="H39" t="n">
-        <v>9.100155754521639</v>
+        <v>9.100155754521641</v>
       </c>
       <c r="I39" t="n">
-        <v>32.44151801680057</v>
+        <v>32.44151801680058</v>
       </c>
       <c r="J39" t="n">
         <v>89.0220050445734</v>
@@ -33982,7 +33982,7 @@
         <v>204.5881973785621</v>
       </c>
       <c r="M39" t="n">
-        <v>238.7447765389259</v>
+        <v>238.744776538926</v>
       </c>
       <c r="N39" t="n">
         <v>245.063640366657</v>
@@ -34043,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7899511330811205</v>
+        <v>0.7899511330811206</v>
       </c>
       <c r="H40" t="n">
-        <v>7.023383710484877</v>
+        <v>7.023383710484878</v>
       </c>
       <c r="I40" t="n">
         <v>23.75598498393044</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84954510883522</v>
+        <v>55.84954510883523</v>
       </c>
       <c r="K40" t="n">
-        <v>91.77795891615199</v>
+        <v>91.777958916152</v>
       </c>
       <c r="L40" t="n">
-        <v>117.4441893673513</v>
+        <v>117.4441893673514</v>
       </c>
       <c r="M40" t="n">
         <v>123.8284307974342</v>
       </c>
       <c r="N40" t="n">
-        <v>120.8840674832228</v>
+        <v>120.8840674832229</v>
       </c>
       <c r="O40" t="n">
         <v>111.6560019740479</v>
@@ -34076,16 +34076,16 @@
         <v>66.14763533463821</v>
       </c>
       <c r="R40" t="n">
-        <v>35.51907549290201</v>
+        <v>35.51907549290202</v>
       </c>
       <c r="S40" t="n">
         <v>13.7666938374228</v>
       </c>
       <c r="T40" t="n">
-        <v>3.375245750437514</v>
+        <v>3.375245750437515</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04308824362260662</v>
+        <v>0.04308824362260663</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>18.03546128978304</v>
       </c>
       <c r="I44" t="n">
-        <v>67.89328659825325</v>
+        <v>67.89328659825362</v>
       </c>
       <c r="J44" t="n">
         <v>149.4678122928084</v>
@@ -34392,7 +34392,7 @@
         <v>190.1747267527948</v>
       </c>
       <c r="R44" t="n">
-        <v>110.6232193574355</v>
+        <v>110.6232193574353</v>
       </c>
       <c r="S44" t="n">
         <v>40.13016713203285</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>403.5729633355703</v>
+      </c>
+      <c r="P2" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>453.4520759799035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>403.5729633355704</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>453.4520759799035</v>
@@ -34786,7 +34786,7 @@
         <v>453.4520759799035</v>
       </c>
       <c r="M3" t="n">
-        <v>435.1307799807154</v>
+        <v>70.31922207545655</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="Q3" t="n">
-        <v>453.4520759799035</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,22 +34862,22 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>333.3724747312039</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>79.60460804371327</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>316.3870073727329</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="P5" t="n">
-        <v>453.4520759799035</v>
+        <v>403.5729633355703</v>
       </c>
       <c r="Q5" t="n">
         <v>453.4520759799035</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
@@ -35020,22 +35020,22 @@
         <v>453.4520759799035</v>
       </c>
       <c r="L6" t="n">
-        <v>70.31922207545655</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>77.84108365314539</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>453.4520759799035</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>453.4520759799035</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35099,13 +35099,13 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>310.3399600022998</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>333.3724747312039</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="M8" t="n">
+      <c r="Q8" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="N8" t="n">
-        <v>453.4520759799035</v>
-      </c>
-      <c r="O8" t="n">
-        <v>435.1307799807154</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>68.86465996364926</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>453.4520759799035</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>70.31922207545655</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>70.31922207545655</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>46.25882184091076</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35348,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>173.4719714949387</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35488,13 +35488,13 @@
         <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>453.4520759799035</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L12" t="n">
-        <v>217.4384341277167</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M12" t="n">
         <v>211.3885843242576</v>
@@ -35506,7 +35506,7 @@
         <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>154.9475907538915</v>
+        <v>225.3229807893105</v>
       </c>
       <c r="Q12" t="n">
         <v>95.38455350960186</v>
@@ -35570,22 +35570,22 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K13" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
-        <v>453.4520759799035</v>
+        <v>99.04378543193859</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799035</v>
+        <v>296.2258958330258</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P13" t="n">
-        <v>119.2516167299731</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
         <v>40.3479419881039</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
@@ -35734,22 +35734,22 @@
         <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242576</v>
+        <v>281.7639743596756</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>394.1526882300082</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
-        <v>453.4520759799035</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
         <v>95.38455350960186</v>
       </c>
       <c r="R15" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M16" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799035</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
         <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.143893929051</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
@@ -35971,22 +35971,22 @@
         <v>178.4230816471201</v>
       </c>
       <c r="M18" t="n">
-        <v>216.4900723177592</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N18" t="n">
-        <v>453.4520759799034</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>453.4520759799034</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R18" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325469</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L19" t="n">
+        <v>219.9348809797786</v>
+      </c>
+      <c r="M19" t="n">
         <v>453.4520759799034</v>
-      </c>
-      <c r="M19" t="n">
-        <v>99.04378543193859</v>
       </c>
       <c r="N19" t="n">
         <v>453.4520759799034</v>
@@ -36059,10 +36059,10 @@
         <v>453.4520759799034</v>
       </c>
       <c r="P19" t="n">
-        <v>192.3467603368661</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
         <v>211.1492784199623</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326163</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>347.6533898138957</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>453.4520759799035</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
         <v>211.3885843242576</v>
@@ -36214,16 +36214,16 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799035</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
-        <v>119.2516167299731</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>188.2489042988307</v>
       </c>
       <c r="L23" t="n">
-        <v>301.7421509861514</v>
+        <v>239.5965192651619</v>
       </c>
       <c r="M23" t="n">
         <v>271.7955592365005</v>
@@ -36375,10 +36375,10 @@
         <v>259.3279302706263</v>
       </c>
       <c r="P23" t="n">
-        <v>753.6710241166624</v>
+        <v>318.9995776934751</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.0500521481967</v>
+        <v>650.8671302923736</v>
       </c>
       <c r="R23" t="n">
         <v>229.3669919654178</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.26913126680057</v>
+        <v>39.9633795944893</v>
       </c>
       <c r="J24" t="n">
-        <v>68.41089071124007</v>
+        <v>363.4639134077967</v>
       </c>
       <c r="K24" t="n">
         <v>129.7535520041885</v>
@@ -36448,10 +36448,10 @@
         <v>215.647996026598</v>
       </c>
       <c r="N24" t="n">
-        <v>691.2298702258422</v>
+        <v>223.7206121531153</v>
       </c>
       <c r="O24" t="n">
-        <v>201.01346414496</v>
+        <v>349.7754511934414</v>
       </c>
       <c r="P24" t="n">
         <v>158.1576698035106</v>
@@ -36518,7 +36518,7 @@
         <v>113.921593820106</v>
       </c>
       <c r="K25" t="n">
-        <v>319.260230398535</v>
+        <v>320.5937177099269</v>
       </c>
       <c r="L25" t="n">
         <v>475.7162310788875</v>
@@ -36536,7 +36536,7 @@
         <v>389.0755563560626</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.4305951737917</v>
+        <v>193.0971078624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>33.34538405428975</v>
       </c>
       <c r="J26" t="n">
-        <v>120.0478528072219</v>
+        <v>120.0478528072223</v>
       </c>
       <c r="K26" t="n">
         <v>188.2489042988307</v>
@@ -36603,13 +36603,13 @@
         <v>239.5965192651619</v>
       </c>
       <c r="M26" t="n">
-        <v>271.7955592365005</v>
+        <v>271.7955592365006</v>
       </c>
       <c r="N26" t="n">
-        <v>276.950812570335</v>
+        <v>276.9508125703351</v>
       </c>
       <c r="O26" t="n">
-        <v>259.3279302706263</v>
+        <v>259.3279302706264</v>
       </c>
       <c r="P26" t="n">
         <v>215.6673456519842</v>
@@ -36618,7 +36618,7 @@
         <v>154.0500521481967</v>
       </c>
       <c r="R26" t="n">
-        <v>75.59056946263928</v>
+        <v>75.59056946263888</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.26913126680057</v>
+        <v>39.96337959448931</v>
       </c>
       <c r="J27" t="n">
         <v>68.41089071124007</v>
@@ -36685,19 +36685,19 @@
         <v>215.647996026598</v>
       </c>
       <c r="N27" t="n">
-        <v>386.0521521548302</v>
+        <v>223.7206121531153</v>
       </c>
       <c r="O27" t="n">
         <v>201.01346414496</v>
       </c>
       <c r="P27" t="n">
-        <v>463.3353878745226</v>
+        <v>158.1576698035107</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.53040634299141</v>
+        <v>434.8247087295382</v>
       </c>
       <c r="R27" t="n">
-        <v>34.82926264991051</v>
+        <v>141.3499700084012</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>35.21278912493335</v>
+        <v>35.21278912493337</v>
       </c>
       <c r="K28" t="n">
-        <v>70.81330446343999</v>
+        <v>70.81330446344001</v>
       </c>
       <c r="L28" t="n">
-        <v>95.52542947165011</v>
+        <v>463.3353878745226</v>
       </c>
       <c r="M28" t="n">
         <v>463.3353878745226</v>
@@ -36767,10 +36767,10 @@
         <v>463.3353878745226</v>
       </c>
       <c r="O28" t="n">
-        <v>463.3353878745226</v>
+        <v>223.9004017827855</v>
       </c>
       <c r="P28" t="n">
-        <v>201.5351705123418</v>
+        <v>73.16019820120647</v>
       </c>
       <c r="Q28" t="n">
         <v>41.52807256985326</v>
@@ -36840,22 +36840,22 @@
         <v>239.5965192651619</v>
       </c>
       <c r="M29" t="n">
-        <v>271.7955592365005</v>
+        <v>271.7955592365006</v>
       </c>
       <c r="N29" t="n">
-        <v>276.950812570335</v>
+        <v>276.9508125703351</v>
       </c>
       <c r="O29" t="n">
-        <v>259.3279302706263</v>
+        <v>259.3279302706264</v>
       </c>
       <c r="P29" t="n">
         <v>215.6673456519842</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.0500521481967</v>
+        <v>154.0500521481969</v>
       </c>
       <c r="R29" t="n">
-        <v>75.59056946263928</v>
+        <v>75.59056946263888</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.26913126680057</v>
+        <v>39.96337959448931</v>
       </c>
       <c r="J30" t="n">
-        <v>68.41089071124007</v>
+        <v>363.4639134077967</v>
       </c>
       <c r="K30" t="n">
         <v>129.7535520041885</v>
@@ -36919,7 +36919,7 @@
         <v>182.0731106643325</v>
       </c>
       <c r="M30" t="n">
-        <v>317.3522725677932</v>
+        <v>215.647996026598</v>
       </c>
       <c r="N30" t="n">
         <v>223.7206121531153</v>
@@ -36928,13 +36928,13 @@
         <v>201.01346414496</v>
       </c>
       <c r="P30" t="n">
-        <v>158.1576698035106</v>
+        <v>158.1576698035107</v>
       </c>
       <c r="Q30" t="n">
-        <v>463.3353878745226</v>
+        <v>139.7716860329817</v>
       </c>
       <c r="R30" t="n">
-        <v>34.82926264991051</v>
+        <v>141.3499700084012</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>113.921593820106</v>
+        <v>35.21278912493337</v>
       </c>
       <c r="K31" t="n">
-        <v>70.81330446343999</v>
+        <v>70.81330446344001</v>
       </c>
       <c r="L31" t="n">
-        <v>145.1915970876129</v>
+        <v>223.9004017827855</v>
       </c>
       <c r="M31" t="n">
         <v>463.3353878745226</v>
@@ -37068,7 +37068,7 @@
         <v>33.34538405428975</v>
       </c>
       <c r="J32" t="n">
-        <v>120.0478528072219</v>
+        <v>120.0478528072223</v>
       </c>
       <c r="K32" t="n">
         <v>188.2489042988307</v>
@@ -37077,13 +37077,13 @@
         <v>239.5965192651619</v>
       </c>
       <c r="M32" t="n">
-        <v>271.7955592365005</v>
+        <v>271.7955592365006</v>
       </c>
       <c r="N32" t="n">
-        <v>276.950812570335</v>
+        <v>276.9508125703351</v>
       </c>
       <c r="O32" t="n">
-        <v>259.3279302706263</v>
+        <v>259.3279302706264</v>
       </c>
       <c r="P32" t="n">
         <v>215.6673456519842</v>
@@ -37092,7 +37092,7 @@
         <v>154.0500521481967</v>
       </c>
       <c r="R32" t="n">
-        <v>75.59056946263885</v>
+        <v>75.59056946263888</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.26913126680057</v>
+        <v>39.96337959448931</v>
       </c>
       <c r="J33" t="n">
-        <v>68.41089071124007</v>
+        <v>363.4639134077967</v>
       </c>
       <c r="K33" t="n">
         <v>129.7535520041885</v>
@@ -37165,13 +37165,13 @@
         <v>201.01346414496</v>
       </c>
       <c r="P33" t="n">
-        <v>259.8619463447063</v>
+        <v>158.1576698035107</v>
       </c>
       <c r="Q33" t="n">
-        <v>463.3353878745226</v>
+        <v>139.7716860329817</v>
       </c>
       <c r="R33" t="n">
-        <v>34.82926264991051</v>
+        <v>141.3499700084012</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>113.921593820106</v>
+        <v>35.21278912493337</v>
       </c>
       <c r="K34" t="n">
-        <v>70.81330446343999</v>
+        <v>70.81330446344001</v>
       </c>
       <c r="L34" t="n">
-        <v>95.52542947165011</v>
+        <v>95.52542947165014</v>
       </c>
       <c r="M34" t="n">
         <v>463.3353878745226</v>
@@ -37241,13 +37241,13 @@
         <v>463.3353878745226</v>
       </c>
       <c r="O34" t="n">
-        <v>463.3353878745226</v>
+        <v>275.7950020308017</v>
       </c>
       <c r="P34" t="n">
-        <v>73.16019820120647</v>
+        <v>389.0755563560626</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.1942401858162</v>
+        <v>41.52807256985326</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>33.34538405428975</v>
       </c>
       <c r="J35" t="n">
-        <v>120.0478528072219</v>
+        <v>120.0478528072223</v>
       </c>
       <c r="K35" t="n">
         <v>188.2489042988307</v>
@@ -37314,13 +37314,13 @@
         <v>239.5965192651619</v>
       </c>
       <c r="M35" t="n">
-        <v>271.7955592365005</v>
+        <v>271.7955592365006</v>
       </c>
       <c r="N35" t="n">
-        <v>276.950812570335</v>
+        <v>276.9508125703351</v>
       </c>
       <c r="O35" t="n">
-        <v>259.3279302706263</v>
+        <v>259.3279302706264</v>
       </c>
       <c r="P35" t="n">
         <v>215.6673456519842</v>
@@ -37329,7 +37329,7 @@
         <v>154.0500521481967</v>
       </c>
       <c r="R35" t="n">
-        <v>75.59056946263885</v>
+        <v>75.59056946263888</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.26913126680057</v>
+        <v>39.96337959448931</v>
       </c>
       <c r="J36" t="n">
         <v>363.4639134077967</v>
       </c>
       <c r="K36" t="n">
-        <v>129.7535520041885</v>
+        <v>171.9948316941788</v>
       </c>
       <c r="L36" t="n">
         <v>182.0731106643325</v>
       </c>
       <c r="M36" t="n">
-        <v>388.1042314027678</v>
+        <v>215.647996026598</v>
       </c>
       <c r="N36" t="n">
         <v>223.7206121531153</v>
@@ -37402,13 +37402,13 @@
         <v>201.01346414496</v>
       </c>
       <c r="P36" t="n">
-        <v>158.1576698035106</v>
+        <v>158.1576698035107</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.53040634299141</v>
+        <v>97.53040634299144</v>
       </c>
       <c r="R36" t="n">
-        <v>34.82926264991051</v>
+        <v>141.3499700084012</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>113.921593820106</v>
       </c>
       <c r="K37" t="n">
-        <v>70.81330446343999</v>
+        <v>320.5937177099269</v>
       </c>
       <c r="L37" t="n">
-        <v>145.1915970876129</v>
+        <v>463.3353878745226</v>
       </c>
       <c r="M37" t="n">
         <v>463.3353878745226</v>
       </c>
       <c r="N37" t="n">
-        <v>463.3353878745226</v>
+        <v>269.5897572400251</v>
       </c>
       <c r="O37" t="n">
-        <v>463.3353878745226</v>
+        <v>89.15681447562345</v>
       </c>
       <c r="P37" t="n">
         <v>73.16019820120647</v>
@@ -37551,13 +37551,13 @@
         <v>239.5965192651619</v>
       </c>
       <c r="M38" t="n">
-        <v>271.7955592365005</v>
+        <v>271.7955592365006</v>
       </c>
       <c r="N38" t="n">
-        <v>276.950812570335</v>
+        <v>276.9508125703351</v>
       </c>
       <c r="O38" t="n">
-        <v>259.3279302706263</v>
+        <v>259.3279302706264</v>
       </c>
       <c r="P38" t="n">
         <v>215.6673456519842</v>
@@ -37566,7 +37566,7 @@
         <v>154.0500521481967</v>
       </c>
       <c r="R38" t="n">
-        <v>75.59056946263885</v>
+        <v>75.59056946263888</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.26913126680057</v>
+        <v>39.96337959448931</v>
       </c>
       <c r="J39" t="n">
-        <v>230.742430712955</v>
+        <v>363.4639134077967</v>
       </c>
       <c r="K39" t="n">
         <v>129.7535520041885</v>
@@ -37639,13 +37639,13 @@
         <v>201.01346414496</v>
       </c>
       <c r="P39" t="n">
-        <v>463.3353878745226</v>
+        <v>158.1576698035107</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.53040634299141</v>
+        <v>139.7716860329817</v>
       </c>
       <c r="R39" t="n">
-        <v>34.82926264991051</v>
+        <v>141.3499700084012</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>113.921593820106</v>
+        <v>35.21278912493337</v>
       </c>
       <c r="K40" t="n">
-        <v>70.81330446343999</v>
+        <v>320.5937177099269</v>
       </c>
       <c r="L40" t="n">
+        <v>183.2998629009343</v>
+      </c>
+      <c r="M40" t="n">
+        <v>101.2529909059484</v>
+      </c>
+      <c r="N40" t="n">
         <v>463.3353878745226</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>463.3353878745226</v>
       </c>
-      <c r="N40" t="n">
-        <v>100.1351665076224</v>
-      </c>
-      <c r="O40" t="n">
-        <v>89.15681447562343</v>
-      </c>
       <c r="P40" t="n">
-        <v>339.4926795761577</v>
+        <v>73.16019820120647</v>
       </c>
       <c r="Q40" t="n">
         <v>194.4305951737917</v>
@@ -37797,7 +37797,7 @@
         <v>259.3279302706264</v>
       </c>
       <c r="P41" t="n">
-        <v>215.6673456519842</v>
+        <v>215.6673456519845</v>
       </c>
       <c r="Q41" t="n">
         <v>154.0500521481967</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.26913126680058</v>
+        <v>39.96337959448931</v>
       </c>
       <c r="J42" t="n">
         <v>363.4639134077967</v>
       </c>
       <c r="K42" t="n">
-        <v>302.2097873803584</v>
+        <v>129.7535520041885</v>
       </c>
       <c r="L42" t="n">
         <v>182.0731106643325</v>
@@ -37879,10 +37879,10 @@
         <v>158.1576698035107</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.53040634299144</v>
+        <v>139.7716860329817</v>
       </c>
       <c r="R42" t="n">
-        <v>34.82926264991052</v>
+        <v>141.3499700084012</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>70.81330446344001</v>
       </c>
       <c r="L43" t="n">
-        <v>223.9004017827855</v>
+        <v>95.52542947165014</v>
       </c>
       <c r="M43" t="n">
         <v>463.3353878745226</v>
@@ -37952,13 +37952,13 @@
         <v>463.3353878745226</v>
       </c>
       <c r="O43" t="n">
-        <v>463.3353878745226</v>
+        <v>438.8078375817196</v>
       </c>
       <c r="P43" t="n">
         <v>73.16019820120647</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.52807256985326</v>
+        <v>194.4305951737917</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>33.34538405428975</v>
+        <v>33.34538405429012</v>
       </c>
       <c r="J44" t="n">
         <v>120.0478528072219</v>
@@ -38040,7 +38040,7 @@
         <v>154.0500521481967</v>
       </c>
       <c r="R44" t="n">
-        <v>75.59056946263905</v>
+        <v>75.59056946263888</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.26913126680058</v>
+        <v>39.96337959448931</v>
       </c>
       <c r="J45" t="n">
-        <v>68.41089071124007</v>
+        <v>363.4639134077967</v>
       </c>
       <c r="K45" t="n">
-        <v>129.7535520041885</v>
+        <v>171.9948316941788</v>
       </c>
       <c r="L45" t="n">
         <v>182.0731106643325</v>
       </c>
       <c r="M45" t="n">
-        <v>463.3353878745226</v>
+        <v>215.647996026598</v>
       </c>
       <c r="N45" t="n">
         <v>223.7206121531153</v>
@@ -38116,10 +38116,10 @@
         <v>158.1576698035107</v>
       </c>
       <c r="Q45" t="n">
-        <v>317.3522725677933</v>
+        <v>97.53040634299144</v>
       </c>
       <c r="R45" t="n">
-        <v>34.82926264991052</v>
+        <v>141.3499700084012</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>113.921593820106</v>
+        <v>35.21278912493337</v>
       </c>
       <c r="K46" t="n">
-        <v>70.81330446344001</v>
+        <v>320.5937177099269</v>
       </c>
       <c r="L46" t="n">
-        <v>412.6346866962915</v>
+        <v>95.52542947165014</v>
       </c>
       <c r="M46" t="n">
-        <v>101.2529909059484</v>
+        <v>247.2906395792753</v>
       </c>
       <c r="N46" t="n">
         <v>463.3353878745226</v>
